--- a/FinalDataSet.xlsx
+++ b/FinalDataSet.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Material DQI" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Material Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Material_Data1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Material_Data2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -732,9 +734,6 @@
           <t>Worldwide production - At world average recycled content</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -814,9 +813,6 @@
           <t>Regional aluminium - At world average recycled content</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1202,9 +1198,6 @@
           <t>Road surfaces - Asphalt surface or binder course, including laying and compacting, per 1m2 at 100mm thickness</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1446,7 +1439,6 @@
           <t>CEM II - Portland-slag cement</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -1482,7 +1474,6 @@
           <t>Portland Slag Cement</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -1518,7 +1509,6 @@
           <t>Portland Pozzolana Cement</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -1590,7 +1580,6 @@
           <t>Portland Fly Ash Cement</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -1662,7 +1651,6 @@
           <t>Portland Limestone Cement</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -1698,7 +1686,6 @@
           <t>Portland Composite Cement</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -1752,7 +1739,6 @@
           <t>Blast Furnace Cement</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -1788,7 +1774,6 @@
           <t>Pozzolanoc Cement</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -1824,9 +1809,6 @@
           <t>Composite Cement</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1942,7 +1924,6 @@
           <t>Mortar and Screed - Average UK Cement Mix</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -2068,9 +2049,6 @@
           <t>Admixtures</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2475,7 +2453,6 @@
           <t>With CEM I</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -2709,7 +2686,6 @@
           <t>Portland Limestone Concrete - 14% Limestone</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -2943,7 +2919,6 @@
           <t>35% natural pozzolanic ash</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -3651,9 +3626,6 @@
           <t>By Volume and Cementitious Content</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3769,7 +3741,6 @@
           <t>NOMINAL PROPORTIONS METHOD (Volume) - With Average UK Cement</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -3895,7 +3866,6 @@
           <t>By Cementitious Content with CEM I</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -4251,7 +4221,6 @@
           <t xml:space="preserve">By Cementitious Content with Average UK Cement </t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr">
         <is>
           <t>DQI Score</t>
@@ -4733,9 +4702,6 @@
           <t>Glazing by thickness of glass - Per m2</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr"/>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -4909,9 +4875,6 @@
           <t>Double glazing - no frame</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr"/>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -5049,9 +5012,6 @@
           <t>Triple glazing - no frame</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr"/>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -5171,9 +5131,6 @@
           <t>Multi layer safety glass, filled core - fire resistant - no frame</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr"/>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -5275,9 +5232,6 @@
           <t>Multi layer safety glass, not a filled core - no frame</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr"/>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -5379,9 +5333,6 @@
           <t>Toughened glass - no frame</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr"/>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -5573,9 +5524,6 @@
           <t>Skylight or roof light - with frame</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr"/>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6433,9 +6381,6 @@
           <t>Data including carbon storage</t>
         </is>
       </c>
-      <c r="B342" t="inlineStr"/>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -8460,4 +8405,5754 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Main Material</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Sample Size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DQI Sample Size (Max 10)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DQI Total - % (Max 100%)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DQI Temporal (Max 5)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>DQI Geographic (Max 5)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DQI Transparency (Max 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AggregateSand</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>162</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7306878306878307</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.635802469135802</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.660493827160494</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.08641975308642</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AggregateSand, Land won gravel and sand</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>134</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7036247334754796</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.582089552238806</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.597014925373134</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.104477611940299</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AggregateSand, Recycled aggregate, no heat treat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5612244897959183</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.785714285714286</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AggregateSand, Recycled aggregate, heat treat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AggregateSand, Secondary manufactured</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AggregateSand, Expanded clay agg and sand</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AggregateSand, Marine sand and aggregate</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aluminium</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>78</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7326007326007327</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.935897435897436</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.602564102564103</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.256410256410256</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Aluminium profile</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.96875</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.3125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Aluminium, Cast</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6228571428571429</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Aluminium, sheet</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.714285714285714</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Aluminium, primary ingot</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.635064935064935</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.818181818181818</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Aluminium, secondary ingot</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6321428571428571</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Asphalt</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6685714285714286</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Asphalt, for roads</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.638095238095238</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mastic asphalt</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bitumen</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Bitumen, membrane</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6057142857142856</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bitumen, emulsion</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Bitumen, Straight-run</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bitumen, PMB</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cement</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>65</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6879120879120879</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.723076923076923</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.107692307692307</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.123076923076923</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cement, Mortar</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>40</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6464285714285715</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.575</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cement, General</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6337662337662338</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.090909090909091</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cement, Admixtures</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cement, Screed</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5785714285714286</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cement, Grout</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cement, Fibreboard</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6446428571428572</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.0625</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Clay, Brick Hollowcore</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6214285714285714</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Clay, Brick</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Clay, Brick Hollowcore insulated</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Clay, Tile</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>63</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6879818594104309</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.349206349206349</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.253968253968254</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Concrete, General</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>16</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.6446428571428572</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.625</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.4375</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Concrete, Pre-Cast</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>42</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.654421768707483</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Concrete, aerated</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Glass</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>166</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7819277108433735</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.969879518072289</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.439759036144578</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.993975903614458</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Glass, General</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>89</v>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7120385232744784</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.955056179775281</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.98876404494382</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Glass, Toughened</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>43</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Glass, Glazing, Double</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6253968253968254</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Glass, Multi layer safety, unfilled</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Glass, Multi layer safety, filled core, fire resistant, toughened</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Glass, Glazing triple</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6238095238095239</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>133</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7370569280343717</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.706766917293233</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.864661654135338</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Steel, Bar and Rod</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>24</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.638095238095238</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.541666666666667</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Steel, Sheet</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>11</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6597402597402597</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Steel, Galvanised</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.6114285714285715</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Steel, Structural</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Steel, Stainless</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>226</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.7600505689001265</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.915929203539823</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.305309734513274</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.699115044247788</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Timber, Softwood</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>45</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.955555555555556</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.533333333333333</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.955555555555555</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Timber, Wood I-Beam</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>37</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6833976833976834</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4.891891891891892</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.081081081081081</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Timber, Hardwood</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>22</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.583116883116883</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.954545454545454</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.590909090909091</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Timber, OSB</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.6464285714285715</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Timber, Particle Board</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>13</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5846153846153845</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.846153846153846</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.076923076923077</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Timber, Plywood</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>11</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5948051948051949</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.909090909090909</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.363636363636364</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.909090909090909</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Timber, Laminate</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>16</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.6267857142857143</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.625</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Timber, Parquet</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>12</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.630952380952381</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Timber, Chipboard</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Timber, Fibreboard</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>7</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5836734693877551</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.571428571428571</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Timber, Laminated veneer lumber</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.582857142857143</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D298"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Density (kg m-3)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Specific heat (J kg-1 K-1)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Thermal Diffusivity (M^2 S-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C2" t="n">
+        <v>840</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.566326530612244e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aggregate (sand, gravel or stone)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C3" t="n">
+        <v>920</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.308229813664597e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sand</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C4" t="n">
+        <v>840</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.247448979591836e-07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aluminium</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C5" t="n">
+        <v>880</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.680134680134681e-05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Asphalt A</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.941176470588235e-07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Asphalt B</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.069053708439897e-07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>poured</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>920</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.211180124223603e-07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bitumen, composite, flooring</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.541666666666667e-07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bitumen, insulation, all types</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.176470588235294e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>cement</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C11" t="n">
+        <v>840</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.608294930875576e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cement blocks, cellular</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>520</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.110859728506788e-07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cement fibreboard, magnesium oxysulphide binder</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>350</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.802197802197802e-07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cement mortar</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C14" t="n">
+        <v>920</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.743083003952569e-07</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>cement mortar</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C15" t="n">
+        <v>840</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.827067669172933e-07</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>cement mortar</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C16" t="n">
+        <v>840</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.398496240601504e-07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>cement/lime plaster</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C17" t="n">
+        <v>840</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.952380952380953e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cement panels, wood fibres A</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>350</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.209372637944067e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>cement panels, wood fibres B</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>350</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3040</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.12781954887218e-07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>cement panels, wood fibres C</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>400</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.040816326530612e-07</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>cement panels, wood fibres D</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C21" t="n">
+        <v>840</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.525252525252525e-07</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cement Screed</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>650</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.025641025641026e-06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ceramic tiles</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>850</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.058823529411765e-07</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ceramic floor tiles</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C24" t="n">
+        <v>850</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.536332179930796e-07</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Clay tiles</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C25" t="n">
+        <v>840</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.325814536340852e-07</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Clay tiles, burnt</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>840</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.738095238095238e-07</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Clay tile, hollow, 10.2mm. 1 cell</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C27" t="n">
+        <v>840</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.527210884353742e-07</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Clay tile, hollow, 20.3mm, 2 cells</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C28" t="n">
+        <v>840</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.622023809523809e-07</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Clay tile, hollow, 32.5mm, 3 cells</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C29" t="n">
+        <v>840</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.366071428571429e-07</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Clay tile, pavior</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C30" t="n">
+        <v>840</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.117931547619048e-06</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Density (kg m -3)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Specific heat (J kg-1 K-1)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thermal Diffusivity (M^2 S-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Brick A</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C32" t="n">
+        <v>840</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.464285714285714e-07</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Brick B</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2080</v>
+      </c>
+      <c r="C33" t="n">
+        <v>921</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.838302848074836e-07</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C34" t="n">
+        <v>840</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.571428571428571e-07</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C35" t="n">
+        <v>800</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.558823529411765e-07</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>brickwork, outer leaf</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C36" t="n">
+        <v>800</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6.176470588235294e-07</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>burned A</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C37" t="n">
+        <v>840</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.868131868131868e-07</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>burned B</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C38" t="n">
+        <v>840</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6.746031746031745e-07</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>burned C</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C39" t="n">
+        <v>840</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7.002801120448179e-07</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mud</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C40" t="n">
+        <v>880</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.926431949553337e-07</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C41" t="n">
+        <v>840</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.714285714285714e-07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>reinforced</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C42" t="n">
+        <v>840</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6.820436507936509e-07</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="n">
+        <v>1890</v>
+      </c>
+      <c r="C43" t="n">
+        <v>880</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.81000481000481e-07</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>block, heavyweight, 300mm</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C44" t="n">
+        <v>840</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6.962159863945579e-07</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>block, lightweight, 150mm</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C45" t="n">
+        <v>840</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.464285714285715e-07</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>block, lightweight, 300mm</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C46" t="n">
+        <v>840</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.828042328042328e-07</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="n">
+        <v>620</v>
+      </c>
+      <c r="C47" t="n">
+        <v>840</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.608294930875576e-07</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="n">
+        <v>670</v>
+      </c>
+      <c r="C48" t="n">
+        <v>840</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.442075337597725e-07</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="n">
+        <v>720</v>
+      </c>
+      <c r="C49" t="n">
+        <v>840</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.298941798941799e-07</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="n">
+        <v>750</v>
+      </c>
+      <c r="C50" t="n">
+        <v>840</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.761904761904762e-07</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="n">
+        <v>770</v>
+      </c>
+      <c r="C51" t="n">
+        <v>840</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.329004329004329e-07</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="n">
+        <v>820</v>
+      </c>
+      <c r="C52" t="n">
+        <v>840</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.210220673635307e-07</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="n">
+        <v>870</v>
+      </c>
+      <c r="C53" t="n">
+        <v>840</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.105090311986864e-07</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>block, medium weight, 150mm</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C54" t="n">
+        <v>840</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.824561403508772e-07</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>block, medium weight, 300mm</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C55" t="n">
+        <v>840</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5.09327442317133e-07</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="n">
+        <v>920</v>
+      </c>
+      <c r="C56" t="n">
+        <v>840</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.011387163561076e-07</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="n">
+        <v>970</v>
+      </c>
+      <c r="C57" t="n">
+        <v>840</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.927344133529701e-07</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C58" t="n">
+        <v>840</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.968253968253968e-07</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C59" t="n">
+        <v>840</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.140786749482402e-07</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>block, hollow, heavyweight, 300mm</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C60" t="n">
+        <v>840</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.317330210772834e-06</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>block, hollow, lightweight, 150mm</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>880</v>
+      </c>
+      <c r="C61" t="n">
+        <v>840</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6.493506493506493e-07</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>block, hollow, lightweight, 300mm</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>780</v>
+      </c>
+      <c r="C62" t="n">
+        <v>840</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.15995115995116e-06</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>block, hollow, medium weight, 150mm</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C63" t="n">
+        <v>840</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7.097069597069597e-07</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>block, hollow, medium weight, 300mm</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>930</v>
+      </c>
+      <c r="C64" t="n">
+        <v>840</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.100870455709165e-06</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>block, partially filled, heavyweight, 300mm</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1570</v>
+      </c>
+      <c r="C65" t="n">
+        <v>840</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.023657870791629e-06</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>block, partially filled, lightweight, 150mm</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C66" t="n">
+        <v>840</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5.596255596255596e-07</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>block, partially filled, lightweight, 300mm</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C67" t="n">
+        <v>840</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7.865646258503401e-07</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>block, partially filled, medium weight, 150 mm</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C68" t="n">
+        <v>840</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5.728607232366631e-07</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>block, partially filled, mediumweight,300 mm</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C69" t="n">
+        <v>840</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8.030990173847317e-07</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>block, perlite-filled, lightweight, 150mm</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>910</v>
+      </c>
+      <c r="C70" t="n">
+        <v>840</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.223966509680795e-07</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>block, perlite-filled, mediumweight,150mm</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C71" t="n">
+        <v>840</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.225189141076992e-07</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>block, with perlite, lightweight, 150mm</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C72" t="n">
+        <v>840</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.329297820823245e-07</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>block, with perlite, medium weight, 150 mm</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1340</v>
+      </c>
+      <c r="C73" t="n">
+        <v>840</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.464818763326226e-07</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>tiles</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C74" t="n">
+        <v>840</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6.235827664399093e-07</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Concrete, cast:</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> aerated</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>500</v>
+      </c>
+      <c r="C76" t="n">
+        <v>840</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.80952380952381e-07</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="n">
+        <v>850</v>
+      </c>
+      <c r="C77" t="n">
+        <v>840</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.061624649859944e-07</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C78" t="n">
+        <v>840</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4.166666666666667e-07</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>aerated, cellular</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>400</v>
+      </c>
+      <c r="C79" t="n">
+        <v>840</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.464285714285714e-07</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="n">
+        <v>700</v>
+      </c>
+      <c r="C80" t="n">
+        <v>840</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.911564625850341e-07</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C81" t="n">
+        <v>840</v>
+      </c>
+      <c r="D81" t="n">
+        <v>8.333333333333333e-07</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C82" t="n">
+        <v>840</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.098901098901099e-06</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>aerated, cement/lime based</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>580</v>
+      </c>
+      <c r="C83" t="n">
+        <v>840</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4.310344827586207e-07</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> cellular</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>480</v>
+      </c>
+      <c r="C84" t="n">
+        <v>840</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.968253968253968e-07</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="n">
+        <v>700</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.585034013605442e-07</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>cellular bonded</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>520</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.828054298642534e-07</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>dense</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C87" t="n">
+        <v>840</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.199134199134198e-07</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>compacted,</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C88" t="n">
+        <v>840</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.091269841269841e-06</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>dense, reinforced</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C89" t="n">
+        <v>840</v>
+      </c>
+      <c r="D89" t="n">
+        <v>9.834368530020703e-07</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>compacted</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C90" t="n">
+        <v>840</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.095238095238095e-06</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>expanded clay filling</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>780</v>
+      </c>
+      <c r="C91" t="n">
+        <v>840</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.968253968253968e-07</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C92" t="n">
+        <v>840</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5.10204081632653e-07</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>foamed</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>320</v>
+      </c>
+      <c r="C93" t="n">
+        <v>920</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.377717391304348e-07</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="n">
+        <v>400</v>
+      </c>
+      <c r="C94" t="n">
+        <v>920</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.173913043478261e-07</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="n">
+        <v>700</v>
+      </c>
+      <c r="C95" t="n">
+        <v>920</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.329192546583851e-07</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>foam slag</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C96" t="n">
+        <v>960</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.50400641025641e-07</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>glass reinforced</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C97" t="n">
+        <v>840</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.494505494505495e-07</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>heavyweight</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C98" t="n">
+        <v>840</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.738095238095238e-07</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C99" t="n">
+        <v>840</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.011904761904762e-06</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>lightweight</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>620</v>
+      </c>
+      <c r="C100" t="n">
+        <v>840</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.840245775729647e-07</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="n">
+        <v>750</v>
+      </c>
+      <c r="C101" t="n">
+        <v>840</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.968253968253968e-07</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="n">
+        <v>670</v>
+      </c>
+      <c r="C102" t="n">
+        <v>840</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3.731343283582089e-07</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="n">
+        <v>720</v>
+      </c>
+      <c r="C103" t="n">
+        <v>840</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.637566137566137e-07</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="n">
+        <v>770</v>
+      </c>
+      <c r="C104" t="n">
+        <v>840</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.555967841682128e-07</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="n">
+        <v>820</v>
+      </c>
+      <c r="C105" t="n">
+        <v>840</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3.484320557491289e-07</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="n">
+        <v>870</v>
+      </c>
+      <c r="C106" t="n">
+        <v>840</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.420908593322386e-07</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="n">
+        <v>750</v>
+      </c>
+      <c r="C107" t="n">
+        <v>840</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6.825396825396826e-07</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="n">
+        <v>770</v>
+      </c>
+      <c r="C108" t="n">
+        <v>840</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5.875077303648733e-07</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="n">
+        <v>820</v>
+      </c>
+      <c r="C109" t="n">
+        <v>840</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5.807200929152149e-07</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="n">
+        <v>870</v>
+      </c>
+      <c r="C110" t="n">
+        <v>840</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5.883962780514505e-07</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="n">
+        <v>200</v>
+      </c>
+      <c r="C111" t="n">
+        <v>840</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4.761904761904762e-07</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="n">
+        <v>300</v>
+      </c>
+      <c r="C112" t="n">
+        <v>840</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.761904761904762e-07</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="n">
+        <v>500</v>
+      </c>
+      <c r="C113" t="n">
+        <v>840</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.047619047619048e-07</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="n">
+        <v>700</v>
+      </c>
+      <c r="C114" t="n">
+        <v>840</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3.911564625850341e-07</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>medium weight</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C115" t="n">
+        <v>840</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.6281179138322e-07</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C116" t="n">
+        <v>840</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.830227743271222e-07</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C117" t="n">
+        <v>840</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5.202821869488536e-07</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C118" t="n">
+        <v>840</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.06060606060606e-07</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C119" t="n">
+        <v>840</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.195011337868481e-07</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="n">
+        <v>920</v>
+      </c>
+      <c r="C120" t="n">
+        <v>840</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3.493788819875777e-07</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="n">
+        <v>980</v>
+      </c>
+      <c r="C121" t="n">
+        <v>840</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3.522837706511176e-07</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C122" t="n">
+        <v>840</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6.689342403628117e-07</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C123" t="n">
+        <v>840</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5.952380952380952e-07</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C124" t="n">
+        <v>840</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7.326007326007326e-07</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C125" t="n">
+        <v>840</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8.928571428571428e-07</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C126" t="n">
+        <v>840</v>
+      </c>
+      <c r="D126" t="n">
+        <v>8.771929824561403e-07</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>medium weight, with lime</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C127" t="n">
+        <v>880</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5.027548209366391e-07</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>no fines</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C128" t="n">
+        <v>840</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.349206349206349e-07</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>residuals of iron works</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C129" t="n">
+        <v>840</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.166666666666667e-07</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C130" t="n">
+        <v>840</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.120879120879121e-07</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C131" t="n">
+        <v>840</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5.208333333333333e-07</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C132" t="n">
+        <v>840</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.265664160401002e-07</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>roofing slab, aerated</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>500</v>
+      </c>
+      <c r="C133" t="n">
+        <v>840</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3.80952380952381e-07</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>vermiculite aggregate</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>450</v>
+      </c>
+      <c r="C134" t="n">
+        <v>840</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.497354497354498e-07</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>very lightweight</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>370</v>
+      </c>
+      <c r="C135" t="n">
+        <v>840</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.504504504504505e-07</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="n">
+        <v>420</v>
+      </c>
+      <c r="C136" t="n">
+        <v>840</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.251700680272109e-07</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="n">
+        <v>470</v>
+      </c>
+      <c r="C137" t="n">
+        <v>840</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.052684903748734e-07</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="n">
+        <v>520</v>
+      </c>
+      <c r="C138" t="n">
+        <v>840</v>
+      </c>
+      <c r="D138" t="n">
+        <v>3.891941391941392e-07</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="n">
+        <v>570</v>
+      </c>
+      <c r="C139" t="n">
+        <v>840</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3.759398496240602e-07</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="n">
+        <v>350</v>
+      </c>
+      <c r="C140" t="n">
+        <v>840</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.081632653061224e-07</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="n">
+        <v>600</v>
+      </c>
+      <c r="C141" t="n">
+        <v>840</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3.571428571428571e-07</v>
+      </c>
+    </row>
+    <row r="142"/>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Masonry:</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>block, lightweight</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>470</v>
+      </c>
+      <c r="C144" t="n">
+        <v>840</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.812563323201621e-07</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="n">
+        <v>520</v>
+      </c>
+      <c r="C145" t="n">
+        <v>840</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.578754578754579e-07</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="n">
+        <v>570</v>
+      </c>
+      <c r="C146" t="n">
+        <v>840</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.594820384294069e-07</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="n">
+        <v>600</v>
+      </c>
+      <c r="C147" t="n">
+        <v>840</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4.365079365079365e-07</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>block, medium weight</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C148" t="n">
+        <v>840</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5.291005291005291e-07</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C149" t="n">
+        <v>840</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.132756132756133e-07</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C150" t="n">
+        <v>840</v>
+      </c>
+      <c r="D150" t="n">
+        <v>8.597883597883598e-07</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>heavyweight</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C151" t="n">
+        <v>840</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.791505791505791e-07</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C152" t="n">
+        <v>840</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.697554697554698e-07</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C153" t="n">
+        <v>840</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4.822954822954823e-07</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C154" t="n">
+        <v>840</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5.226480836236934e-07</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C155" t="n">
+        <v>840</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5.844155844155845e-07</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>lightweight</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>750</v>
+      </c>
+      <c r="C156" t="n">
+        <v>840</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3.492063492063492e-07</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="n">
+        <v>850</v>
+      </c>
+      <c r="C157" t="n">
+        <v>840</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.781512605042017e-07</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="n">
+        <v>850</v>
+      </c>
+      <c r="C158" t="n">
+        <v>840</v>
+      </c>
+      <c r="D158" t="n">
+        <v>3.361344537815126e-07</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="n">
+        <v>950</v>
+      </c>
+      <c r="C159" t="n">
+        <v>840</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3.383458646616542e-07</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>medium weight</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C160" t="n">
+        <v>840</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3.6281179138322e-07</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C161" t="n">
+        <v>840</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.945054945054946e-07</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C162" t="n">
+        <v>840</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3.830227743271222e-07</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C163" t="n">
+        <v>840</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4e-07</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C164" t="n">
+        <v>840</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3.968253968253968e-07</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C165" t="n">
+        <v>840</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4.022988505747127e-07</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C166" t="n">
+        <v>840</v>
+      </c>
+      <c r="D166" t="n">
+        <v>4.147465437788019e-07</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>cellular sheet</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>140</v>
+      </c>
+      <c r="C167" t="n">
+        <v>840</v>
+      </c>
+      <c r="D167" t="n">
+        <v>4.081632653061225e-07</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>foam</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>130</v>
+      </c>
+      <c r="C168" t="n">
+        <v>750</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5.743589743589744e-07</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="n">
+        <v>140</v>
+      </c>
+      <c r="C169" t="n">
+        <v>840</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4.421768707482993e-07</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>solid (soda-lime)</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C170" t="n">
+        <v>840</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5e-07</v>
+      </c>
+    </row>
+    <row r="171"/>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Glass fibre/wool:</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>fibre quilt</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>12</v>
+      </c>
+      <c r="C173" t="n">
+        <v>840</v>
+      </c>
+      <c r="D173" t="n">
+        <v>3.968253968253968e-06</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>fibre slab</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>25</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.4e-06</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>fibre, strawboard-like</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>300</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.349206349206349e-07</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>wool</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>10</v>
+      </c>
+      <c r="C176" t="n">
+        <v>840</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4.761904761904762e-06</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="n">
+        <v>12</v>
+      </c>
+      <c r="C177" t="n">
+        <v>840</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3.968253968253968e-06</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="n">
+        <v>16</v>
+      </c>
+      <c r="C178" t="n">
+        <v>840</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2.75297619047619e-06</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="n">
+        <v>24</v>
+      </c>
+      <c r="C179" t="n">
+        <v>840</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.636904761904762e-06</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="n">
+        <v>32</v>
+      </c>
+      <c r="C180" t="n">
+        <v>840</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.190476190476191e-06</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="n">
+        <v>48</v>
+      </c>
+      <c r="C181" t="n">
+        <v>840</v>
+      </c>
+      <c r="D181" t="n">
+        <v>7.440476190476191e-07</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="n">
+        <v>80</v>
+      </c>
+      <c r="C182" t="n">
+        <v>840</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4.613095238095238e-07</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>wool, resin bonded</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>24</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.5e-06</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>phenol</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>30</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9.523809523809523e-07</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>phenol, rigid</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>110</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.164502164502165e-07</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>polyisocyanate</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>45</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D186" t="n">
+        <v>4.535147392290249e-07</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>polyurethane</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>30</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D187" t="n">
+        <v>6.34920634920635e-07</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>polyurethane, freon-filled</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>45</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4.535147392290249e-07</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>polyvinylchloride</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>37</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D189" t="n">
+        <v>6.435006435006435e-07</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>urea formaldehyde</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>10</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2.857142857142857e-06</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>urea formaldehyde resin</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>14</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2.623906705539358e-06</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Mineral fibre/wool:</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>fibre blanket, bonded</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>12</v>
+      </c>
+      <c r="C193" t="n">
+        <v>710</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4.929577464788732e-06</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="n">
+        <v>24</v>
+      </c>
+      <c r="C194" t="n">
+        <v>710</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2.112676056338028e-06</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="n">
+        <v>48</v>
+      </c>
+      <c r="C195" t="n">
+        <v>710</v>
+      </c>
+      <c r="D195" t="n">
+        <v>9.389671361502348e-07</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>fibre blanket, metal</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>140</v>
+      </c>
+      <c r="C196" t="n">
+        <v>710</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3.822937625754527e-07</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>reinforced</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>140</v>
+      </c>
+      <c r="C197" t="n">
+        <v>710</v>
+      </c>
+      <c r="D197" t="n">
+        <v>4.627766599597585e-07</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>fibre board, preformed</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>240</v>
+      </c>
+      <c r="C198" t="n">
+        <v>760</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2.302631578947369e-07</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>fibre board, wet felted</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>290</v>
+      </c>
+      <c r="C199" t="n">
+        <v>800</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2.198275862068965e-07</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>fibre board, wet moulded</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>370</v>
+      </c>
+      <c r="C200" t="n">
+        <v>590</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2.794319743472286e-07</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>fibre board, resin bonded</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>240</v>
+      </c>
+      <c r="C201" t="n">
+        <v>710</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2.464788732394366e-07</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>fibre, textile, organic bonded</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>10</v>
+      </c>
+      <c r="C202" t="n">
+        <v>710</v>
+      </c>
+      <c r="D202" t="n">
+        <v>6.056338028169014e-06</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>fibre slag, pipe insulation</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>100</v>
+      </c>
+      <c r="C203" t="n">
+        <v>710</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5.070422535211267e-07</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="n">
+        <v>200</v>
+      </c>
+      <c r="C204" t="n">
+        <v>710</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3.380281690140845e-07</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="n">
+        <v>100</v>
+      </c>
+      <c r="C205" t="n">
+        <v>710</v>
+      </c>
+      <c r="D205" t="n">
+        <v>6.76056338028169e-07</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="n">
+        <v>200</v>
+      </c>
+      <c r="C206" t="n">
+        <v>710</v>
+      </c>
+      <c r="D206" t="n">
+        <v>4.577464788732395e-07</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>wool</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>140</v>
+      </c>
+      <c r="C207" t="n">
+        <v>840</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3.231292517006803e-07</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>wool, fibrous</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>96</v>
+      </c>
+      <c r="C208" t="n">
+        <v>840</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5.33234126984127e-07</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>wool, resin bonded</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>99</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3.636363636363636e-07</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Rock wool:</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="n">
+        <v>23</v>
+      </c>
+      <c r="C211" t="n">
+        <v>710</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2.26576852418861e-06</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="n">
+        <v>60</v>
+      </c>
+      <c r="C212" t="n">
+        <v>710</v>
+      </c>
+      <c r="D212" t="n">
+        <v>7.746478873239437e-07</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="n">
+        <v>100</v>
+      </c>
+      <c r="C213" t="n">
+        <v>710</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.647887323943662e-07</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="n">
+        <v>200</v>
+      </c>
+      <c r="C214" t="n">
+        <v>710</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2.394366197183099e-07</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>unbonded</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>92</v>
+      </c>
+      <c r="C215" t="n">
+        <v>840</v>
+      </c>
+      <c r="D215" t="n">
+        <v>6.081780538302278e-07</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="n">
+        <v>150</v>
+      </c>
+      <c r="C216" t="n">
+        <v>840</v>
+      </c>
+      <c r="D216" t="n">
+        <v>3.412698412698412e-07</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Cork:</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>110</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2.02020202020202e-07</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>board</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>160</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.322751322751323e-07</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>expanded</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>150</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.666666666666667e-07</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>expanded, impregnated</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>150</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.628787878787879e-07</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>slab</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>160</v>
+      </c>
+      <c r="C221" t="n">
+        <v>960</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2.799479166666666e-07</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="n">
+        <v>300</v>
+      </c>
+      <c r="C222" t="n">
+        <v>960</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.909722222222222e-07</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>tiles</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>530</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D223" t="n">
+        <v>8.385744234800839e-08</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Cement plaster</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C224" t="n">
+        <v>840</v>
+      </c>
+      <c r="D224" t="n">
+        <v>4.87012987012987e-07</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C225" t="n">
+        <v>840</v>
+      </c>
+      <c r="D225" t="n">
+        <v>9.398496240601504e-07</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Cement plaster, sand aggregate</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C226" t="n">
+        <v>840</v>
+      </c>
+      <c r="D226" t="n">
+        <v>4.608294930875576e-07</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Cement screed</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C227" t="n">
+        <v>650</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.025641025641026e-06</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Gypsum</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C228" t="n">
+        <v>840</v>
+      </c>
+      <c r="D228" t="n">
+        <v>4.166666666666667e-07</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Gypsum plaster</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C229" t="n">
+        <v>960</v>
+      </c>
+      <c r="D229" t="n">
+        <v>4.743303571428571e-07</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Gypsum plaster, perlite aggregate</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>720</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1340</v>
+      </c>
+      <c r="D230" t="n">
+        <v>2.280265339966832e-07</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Gypsum plaster, sand aggregate</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C231" t="n">
+        <v>840</v>
+      </c>
+      <c r="D231" t="n">
+        <v>5.739795918367347e-07</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Gypsum Plasterboard</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>800</v>
+      </c>
+      <c r="C232" t="n">
+        <v>840</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2.380952380952381e-07</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C233" t="n">
+        <v>840</v>
+      </c>
+      <c r="D233" t="n">
+        <v>7.034632034632035e-07</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Gypsum plastering</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C234" t="n">
+        <v>840</v>
+      </c>
+      <c r="D234" t="n">
+        <v>7.326007326007326e-07</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Limestone mortar</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C235" t="n">
+        <v>840</v>
+      </c>
+      <c r="D235" t="n">
+        <v>5.208333333333333e-07</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Plaster</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>800</v>
+      </c>
+      <c r="C236" t="n">
+        <v>840</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3.273809523809524e-07</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="n">
+        <v>950</v>
+      </c>
+      <c r="C237" t="n">
+        <v>840</v>
+      </c>
+      <c r="D237" t="n">
+        <v>4.385964912280701e-07</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C238" t="n">
+        <v>840</v>
+      </c>
+      <c r="D238" t="n">
+        <v>5.158730158730158e-07</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Plaster ceiling tiles</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C239" t="n">
+        <v>840</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4.039115646258503e-07</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Plaster, lightweight aggregate</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>720</v>
+      </c>
+      <c r="C240" t="n">
+        <v>840</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3.802910052910053e-07</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Plaster, sand aggregate</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C241" t="n">
+        <v>840</v>
+      </c>
+      <c r="D241" t="n">
+        <v>5.810657596371882e-07</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Plasterboard</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>950</v>
+      </c>
+      <c r="C242" t="n">
+        <v>840</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2.005012531328321e-07</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Render, synthetic resin, exterior insulation</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C243" t="n">
+        <v>900</v>
+      </c>
+      <c r="D243" t="n">
+        <v>7.07070707070707e-07</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Rendering</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1430</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D244" t="n">
+        <v>7.902097902097902e-07</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D245" t="n">
+        <v>5.939849624060151e-07</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="n">
+        <v>720</v>
+      </c>
+      <c r="C246" t="n">
+        <v>840</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3.306878306878307e-07</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Rubber:</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D247" t="n">
+        <v>7.555555555555556e-08</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>expanded board, rigid</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>70</v>
+      </c>
+      <c r="C248" t="n">
+        <v>70</v>
+      </c>
+      <c r="D248" t="n">
+        <v>6.53061224489796e-06</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.041666666666667e-07</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>tiles</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.171875e-07</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>stainless steel, 5% Ni</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>7850</v>
+      </c>
+      <c r="C251" t="n">
+        <v>480</v>
+      </c>
+      <c r="D251" t="n">
+        <v>7.696390658174098e-06</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>stainless steel, 20% Ni</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C252" t="n">
+        <v>480</v>
+      </c>
+      <c r="D252" t="n">
+        <v>4.166666666666667e-06</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>steel</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>7800</v>
+      </c>
+      <c r="C253" t="n">
+        <v>480</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.201923076923077e-05</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>fir, pine</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>510</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.705029838022165e-07</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>hardwood (unspecified)</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>90</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2810</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.977066034005536e-07</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="n">
+        <v>700</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.291793313069909e-07</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="n">
+        <v>800</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.529255319148936e-07</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>maple, oak and similar hardwoods</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>720</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.763668430335097e-07</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>oak, radial</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>700</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.135684399282726e-07</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>oak, beech, ash, walnut</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>650</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3050</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.16015132408575e-07</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>meranti</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>650</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2120</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.23367198838897e-07</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>pine, pitch pine</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>650</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2120</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.23367198838897e-07</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="n">
+        <v>650</v>
+      </c>
+      <c r="C263" t="n">
+        <v>3050</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.16015132408575e-07</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>red fir, Oregon fir</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>520</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2280</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.180836707152497e-07</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="n">
+        <v>520</v>
+      </c>
+      <c r="C265" t="n">
+        <v>3440</v>
+      </c>
+      <c r="D265" t="n">
+        <v>9.503577817531306e-08</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>resinous woods (spruce, sylvester pine)</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>530</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.204335608189482e-07</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>softwood</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>510</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1.705029838022165e-07</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="n">
+        <v>630</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2760</v>
+      </c>
+      <c r="D268" t="n">
+        <v>7.476420519898781e-08</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="n">
+        <v>550</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.353965183752418e-07</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> timber</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>480</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D270" t="n">
+        <v>8.928571428571428e-08</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="n">
+        <v>720</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1.157407407407408e-07</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> timber flooring</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>650</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1.794871794871795e-07</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>willow, North Canadian gaboon</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>420</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2400</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.19047619047619e-07</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>willow, birch, soft beech</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>520</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2280</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1.180836707152497e-07</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Wood derivatives:</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>520</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3440</v>
+      </c>
+      <c r="D275" t="n">
+        <v>9.503577817531306e-08</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>cellulosic insulation, loose fill</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>43</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D276" t="n">
+        <v>7.077856420626896e-07</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>chipboard</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>430</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1.236618678479144e-07</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>chipboard, bonded with PF</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>650</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2340</v>
+      </c>
+      <c r="D278" t="n">
+        <v>7.889546351084813e-08</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="n">
+        <v>650</v>
+      </c>
+      <c r="C279" t="n">
+        <v>5020</v>
+      </c>
+      <c r="D279" t="n">
+        <v>7.661661048115232e-08</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>chipboard, bonded with UF</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>630</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2260</v>
+      </c>
+      <c r="D280" t="n">
+        <v>8.428150021070375e-08</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="n">
+        <v>630</v>
+      </c>
+      <c r="C281" t="n">
+        <v>5020</v>
+      </c>
+      <c r="D281" t="n">
+        <v>7.904888382976033e-08</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>chipboard, bonded with</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>630</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2260</v>
+      </c>
+      <c r="D282" t="n">
+        <v>8.428150021070375e-08</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>melamine</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>630</v>
+      </c>
+      <c r="C283" t="n">
+        <v>5020</v>
+      </c>
+      <c r="D283" t="n">
+        <v>7.904888382976033e-08</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>chipboard, perforated</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>350</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.496598639455782e-07</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>flooring blocks</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>650</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.794871794871795e-07</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>hardboard</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>600</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D286" t="n">
+        <v>6.666666666666667e-08</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="n">
+        <v>880</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1340</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.01763907734057e-07</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.726190476190476e-07</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>multiplex, beech</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>650</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.003344481605351e-07</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>multiplex, North Canadian gaboon</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>450</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1.159420289855072e-07</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>multiplex, red fir</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>550</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.027667984189723e-07</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="n">
+        <v>550</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.660079051383399e-07</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>particle board</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>750</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1.005128205128205e-07</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1.307692307692308e-07</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="n">
+        <v>800</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1.153846153846154e-07</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>plywood</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>540</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1.836547291092746e-07</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="n">
+        <v>700</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1.509054325955734e-07</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Vinyl floor covering</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.077097505668934e-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/FinalDataSet.xlsx
+++ b/FinalDataSet.xlsx
@@ -7,10 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Material DQI" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Material Data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Material_Data1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Material_Data2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Material Cost" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:J366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +455,36 @@
           <t>DQI Version</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cost per Unit (USD)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Recyclability Index</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lifespan (Years)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Embodied Carbon (kgCO?)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Energy Consumption (kWh)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6598,6 +6626,292 @@
         <is>
           <t>V2.0</t>
         </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Aggregate</t>
+        </is>
+      </c>
+      <c r="F354" t="n">
+        <v>50</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H354" t="n">
+        <v>30</v>
+      </c>
+      <c r="I354" t="n">
+        <v>200</v>
+      </c>
+      <c r="J354" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Aluminum</t>
+        </is>
+      </c>
+      <c r="F355" t="n">
+        <v>350</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H355" t="n">
+        <v>50</v>
+      </c>
+      <c r="I355" t="n">
+        <v>500</v>
+      </c>
+      <c r="J355" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Asphalt</t>
+        </is>
+      </c>
+      <c r="F356" t="n">
+        <v>100</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H356" t="n">
+        <v>25</v>
+      </c>
+      <c r="I356" t="n">
+        <v>250</v>
+      </c>
+      <c r="J356" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Cement &amp; Mortar</t>
+        </is>
+      </c>
+      <c r="F357" t="n">
+        <v>120</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H357" t="n">
+        <v>60</v>
+      </c>
+      <c r="I357" t="n">
+        <v>350</v>
+      </c>
+      <c r="J357" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Bitumen</t>
+        </is>
+      </c>
+      <c r="F358" t="n">
+        <v>150</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H358" t="n">
+        <v>20</v>
+      </c>
+      <c r="I358" t="n">
+        <v>150</v>
+      </c>
+      <c r="J358" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Clay Bricks</t>
+        </is>
+      </c>
+      <c r="F359" t="n">
+        <v>60</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H359" t="n">
+        <v>100</v>
+      </c>
+      <c r="I359" t="n">
+        <v>300</v>
+      </c>
+      <c r="J359" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="F360" t="n">
+        <v>80</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H360" t="n">
+        <v>50</v>
+      </c>
+      <c r="I360" t="n">
+        <v>150</v>
+      </c>
+      <c r="J360" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Glass</t>
+        </is>
+      </c>
+      <c r="F361" t="n">
+        <v>200</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H361" t="n">
+        <v>70</v>
+      </c>
+      <c r="I361" t="n">
+        <v>100</v>
+      </c>
+      <c r="J361" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Insulation</t>
+        </is>
+      </c>
+      <c r="F362" t="n">
+        <v>25</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H362" t="n">
+        <v>40</v>
+      </c>
+      <c r="I362" t="n">
+        <v>50</v>
+      </c>
+      <c r="J362" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Paint</t>
+        </is>
+      </c>
+      <c r="F363" t="n">
+        <v>40</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H363" t="n">
+        <v>15</v>
+      </c>
+      <c r="I363" t="n">
+        <v>120</v>
+      </c>
+      <c r="J363" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="F364" t="n">
+        <v>300</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H364" t="n">
+        <v>70</v>
+      </c>
+      <c r="I364" t="n">
+        <v>400</v>
+      </c>
+      <c r="J364" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="F365" t="n">
+        <v>70</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H365" t="n">
+        <v>80</v>
+      </c>
+      <c r="I365" t="n">
+        <v>180</v>
+      </c>
+      <c r="J365" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Vinyl</t>
+        </is>
+      </c>
+      <c r="F366" t="n">
+        <v>150</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H366" t="n">
+        <v>50</v>
+      </c>
+      <c r="I366" t="n">
+        <v>250</v>
+      </c>
+      <c r="J366" t="n">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -6611,7 +6925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6620,6098 +6934,321 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Main Material</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Sample Size</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Max Embodied Carbon (kg CO2e/kg)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Standard Deviation Embodied Carbon (kg CO2e/kg)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Variance Based on a Sample (Excel Var Function) Embodied Carbon (kg CO2e/kg)</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cost per Unit (USD)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Recyclability Index</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lifespan (Years)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Embodied Carbon (kgCO?)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Energy Consumption (kWh)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AggregateSand - All Data Collected</t>
+          <t>Aggregate</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0.338274</v>
+        <v>0.7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05152782164762078</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002655116403749017</v>
+        <v>200</v>
+      </c>
+      <c r="F2" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AggregateSand, Land won gravel and sand</t>
+          <t>Aluminum</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134</v>
+        <v>350</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0342735</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005016090761526222</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>2.516116652786872e-05</v>
+        <v>500</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AggregateSand, Recycled aggregate, no heat treat</t>
+          <t>Asphalt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01548</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004612556021212808</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>2.127567304882653e-05</v>
+        <v>250</v>
+      </c>
+      <c r="F4" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AggregateSand, Recycled aggregate, heat treat</t>
+          <t>Cement &amp; Mortar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2608</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1027909366005691</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01056597664722222</v>
+        <v>350</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AggregateSand, Secondary manufactured</t>
+          <t>Bitumen</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08542399999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01699173609434892</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0002887190955000001</v>
+        <v>150</v>
+      </c>
+      <c r="F6" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AggregateSand, Expanded clay agg and sand</t>
+          <t>Clay Bricks</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
-        <v>0.338274</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003182500000001508</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>1.01283062500096e-05</v>
+        <v>300</v>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AggregateSand, Marine sand and aggregate</t>
+          <t>Concrete</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009037500000000002</v>
+        <v>0.3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="F8" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AggregateSand, Expanded foamed glass</t>
+          <t>Glass</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>0.273532</v>
+        <v>0.85</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aluminium - All Data Collected</t>
+          <t>Insulation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>22.07761592942833</v>
+        <v>0.8</v>
       </c>
       <c r="D10" t="n">
-        <v>6.078728413517814</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>36.95093912530879</v>
+        <v>50</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aluminium profile</t>
+          <t>Paint</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>21.6</v>
+        <v>0.6</v>
       </c>
       <c r="D11" t="n">
-        <v>5.361695539108746</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>28.74777905409863</v>
+        <v>120</v>
+      </c>
+      <c r="F11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aluminium, Cast</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="C12" t="n">
-        <v>10.9481</v>
+        <v>0.75</v>
       </c>
       <c r="D12" t="n">
-        <v>3.817915843179363</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
-        <v>14.57648138559999</v>
+        <v>400</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aluminium, sheet</t>
+          <t>Timber</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C13" t="n">
-        <v>10.4617</v>
+        <v>0.7</v>
       </c>
       <c r="D13" t="n">
-        <v>3.318110909378824</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
-        <v>11.00986000693877</v>
+        <v>180</v>
+      </c>
+      <c r="F13" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aluminium, primary ingot</t>
+          <t>Vinyl</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n">
-        <v>22.07761592942833</v>
+        <v>0.6</v>
       </c>
       <c r="D14" t="n">
-        <v>5.237286792258527</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
-        <v>27.42917294436562</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Aluminium, secondary ingot</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.344</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.3780489179656517</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.142920984375</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Asphalt - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0972808</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.02439833537724245</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0005952787691804007</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Asphalt, for roads</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07893550000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0204526296936224</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.0004183100613844448</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mastic asphalt</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0972808</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Bitumen - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>16</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.531352</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.3995887021561208</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.159671130890813</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Bitumen, membrane</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.531352</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.4040925921624352</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1632908230405562</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Bitumen, emulsion</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.356326</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.05526186333167646</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.003053873538888887</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Bitumen, Straight-run</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.246299</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.02771949999999999</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.0007683706802499995</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Bitumen, PMB</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.379756</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.02673300000000026</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.000714653289000014</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Cement - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>65</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.4623132119057792</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.2137335059026379</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cement, Mortar</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>40</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.3079037239742105</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.09480470323718677</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Cement, General</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>11</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.8755270000000001</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.1610556925476405</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.02593893610200009</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Cement, Admixtures</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>6</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.7032970962228945</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.4946268055555553</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Cement, Screed</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.156</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.01710042714749875</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0002924246086269122</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Cement, Grout</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.2192031021678298</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.04805000000000002</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Cement, Fibreboard</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5379230769230769</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Ceramic - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>151</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.272</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5668022514438029</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.321264792241764</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Ceramic, Porcelain Tile</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>51</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.87804878</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.2805490070849745</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.07870774537636507</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Ceramic, Sanitary</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>19</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2.81122449</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.6341099263860023</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.4020953987412612</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Ceramic, Tile</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>81</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.272</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.4340166331052777</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.1883704378120412</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Clay - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>16</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.04403154559105074</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.00193877700713678</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Clay, Brick Hollowcore</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.05102490176044031</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.002603540599662585</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Clay, Brick</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>6</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.2936338888888889</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.03131167949395065</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.0009804212727318894</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Clay, Brick Hollowcore insulated</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.3078260869565217</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Clay, Tile</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Concrete - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>63</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5582345454545454</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.112455107257899</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.01264615114838556</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Concrete, General</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>16</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.1651804670912951</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.02538196059101034</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.000644243923443602</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Concrete, Pre-Cast</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>42</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.3434131736526946</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.07476225296799839</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.005589394468850983</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Concrete, aerated</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>5</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5582345454545454</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.07504068446729979</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.005631104325320848</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Glass - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>166</v>
-      </c>
-      <c r="C44" t="n">
-        <v>5.061706313718477</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.4533450905807984</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.2055217711537123</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Glass, General</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>89</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2.026666666666666</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.2053814041742283</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.04218152118057772</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Glass, Toughened</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>43</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.2316500033420786</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.05366172404838501</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Glass, Glazing, Double</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>9</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.1396064661321748</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.01948996538591407</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Glass, Multi layer safety, unfilled</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>6</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.651898734177215</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.07785200228883386</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.006060934260380593</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Glass, Multi layer safety, filled core, fire resistant, toughened</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>6</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2.202941176470588</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.0826483810588223</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.006830754891644296</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Glass, Glazing triple</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>6</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1.846666666666667</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.07686194517407664</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.005907758615942764</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Insulation - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>965</v>
-      </c>
-      <c r="C51" t="n">
-        <v>6.2724375</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.9922478883119008</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.9845558718594264</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Insulation, Glass Wool</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>362</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3.824175824</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5429775469325502</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.2948246164728897</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Insulation, Mineral Wool</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>462</v>
-      </c>
-      <c r="C53" t="n">
-        <v>3.804054054</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.5521044586824877</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.3048193332970827</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Insulation, Polyisocyanurate (PIR)</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>37</v>
-      </c>
-      <c r="C54" t="n">
-        <v>3.985507246</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.4339474385983125</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.1883103794660362</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Insulation, Polystyrene</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>94</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4.893617021</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.826759866130282</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.6835318762437617</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Insulation, Polyurethane Board</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>10</v>
-      </c>
-      <c r="C56" t="n">
-        <v>6.2724375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.6817220838824829</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.464744999653075</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Paint - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>584</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.7909644082548579</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.6256246951259575</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Paint, Waterborne</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>584</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.7909644082548579</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.6256246951259575</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Plaster - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>568</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.518663774</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.08872950915135912</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.007872925794241122</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Plaster, Glass Fibre Reinforced Plasterboard</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>85</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.518663774</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.08736054821186931</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.007631865383878341</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Plaster, Gypsum</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>107</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.08378447340835141</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.007019837984314744</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Plaster, Plasterboard</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>376</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.449462154</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.07125896257981947</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.005077839747952111</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Rubber - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>61</v>
-      </c>
-      <c r="C63" t="n">
-        <v>6.35686</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1.268522509747558</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1.609149357736244</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Rubber, Synthetic</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>61</v>
-      </c>
-      <c r="C64" t="n">
-        <v>6.35686</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1.268522509747558</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1.609149357736244</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Steel - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>133</v>
-      </c>
-      <c r="C65" t="n">
-        <v>16.15452215305749</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2.248033192874662</v>
-      </c>
-      <c r="E65" t="n">
-        <v>5.05365323626625</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Steel, Bar and Rod</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>24</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.4981241978795561</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.2481277165131511</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Steel, Sheet</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>11</v>
-      </c>
-      <c r="C67" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.6109600442873495</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.3732721757156001</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Steel, Galvanised</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>10</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3.55501</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.5536619741954142</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.3065415816699635</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Steel, Structural</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>4</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.8858541076272098</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.7847375000000003</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Steel, Stainless</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>6</v>
-      </c>
-      <c r="C70" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.950983892362714</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.9043703635333379</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Timber - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>226</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2.239575238370925</v>
-      </c>
-      <c r="E71" t="n">
-        <v>5.015697248324186</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Timber, Softwood</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>45</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-0.406</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.2156624453088025</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.04651029031657221</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Timber, Wood I-Beam</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>37</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-1.00558085217219</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.02749807271805495</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.0007561440032074382</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Timber, Hardwood</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>22</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-1.176326530612245</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.09889401537950597</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.009780026277881965</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Timber, OSB</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>16</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-0.7183800000000001</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.1722212659512938</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.02966016444586628</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Timber, Particle Board</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>13</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-0.5514705882352943</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.1744386760253119</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.03042885169346371</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Timber, Plywood</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>11</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-0.5771428571428572</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.3230227515156405</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.1043436979967352</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Timber, Laminate</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>16</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="D78" t="n">
-        <v>8.197803809372866</v>
-      </c>
-      <c r="E78" t="n">
-        <v>67.20398729696828</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Timber, Parquet</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>12</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-0.6370349099099099</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.1822018927233963</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.03319752971198802</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Timber, Chipboard</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>8</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-1.091861548421734</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.0630126807579241</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.003970597936300058</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Timber, Fibreboard</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>7</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-0.5119619901999909</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.2406004815846306</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.05788859173875615</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Timber, Laminated veneer lumber</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>5</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-1.100409836065574</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.0942130199892821</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.008876093135500867</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Vinyl - All Data Collected</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>277</v>
-      </c>
-      <c r="C83" t="n">
-        <v>3.650793651</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.6607986963990335</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.4366549171626621</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Vinyl, Sheet</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>106</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3.650793651</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.6830152524332623</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.466509835056473</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Vinyl, Tile</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>171</v>
-      </c>
-      <c r="C85" t="n">
-        <v>3.3758</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.5043158803458226</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.2543345071689821</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Main Material</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Sample Size</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DQI Sample Size (Max 10)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>DQI Total - % (Max 100%)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>DQI Temporal (Max 5)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>DQI Geographic (Max 5)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>DQI Transparency (Max 5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AggregateSand</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>162</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7306878306878307</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.635802469135802</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.660493827160494</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.08641975308642</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AggregateSand, Land won gravel and sand</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>134</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7036247334754796</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.582089552238806</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.597014925373134</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.104477611940299</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AggregateSand, Recycled aggregate, no heat treat</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>14</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5612244897959183</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.785714285714286</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AggregateSand, Recycled aggregate, heat treat</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5333333333333332</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AggregateSand, Secondary manufactured</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AggregateSand, Expanded clay agg and sand</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AggregateSand, Marine sand and aggregate</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Aluminium</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>78</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7326007326007327</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.935897435897436</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.602564102564103</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.256410256410256</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Aluminium profile</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>32</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.875</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.96875</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.3125</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Aluminium, Cast</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6228571428571429</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Aluminium, sheet</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6326530612244898</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3.714285714285714</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.714285714285714</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Aluminium, primary ingot</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>22</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.635064935064935</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.818181818181818</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Aluminium, secondary ingot</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.6321428571428571</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.875</v>
+        <v>250</v>
       </c>
       <c r="F14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Asphalt</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.6685714285714286</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Asphalt, for roads</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.638095238095238</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.666666666666667</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mastic asphalt</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Bitumen</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.6125</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.125</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.875</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Bitumen, membrane</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.6057142857142856</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Bitumen, emulsion</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5333333333333332</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3.333333333333333</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Bitumen, Straight-run</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Bitumen, PMB</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Cement</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>65</v>
-      </c>
-      <c r="C23" t="n">
-        <v>6</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.6879120879120879</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.723076923076923</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4.107692307692307</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.123076923076923</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Cement, Mortar</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>40</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.6464285714285715</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4.575</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cement, General</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>11</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.6337662337662338</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4.090909090909091</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Cement, Admixtures</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>6</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="E26" t="n">
-        <v>5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Cement, Screed</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5785714285714286</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Cement, Grout</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Cement, Fibreboard</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Clay</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>16</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.6446428571428572</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4.0625</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Clay, Brick Hollowcore</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>8</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.6214285714285714</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Clay, Brick</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>6</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.6142857142857143</v>
-      </c>
-      <c r="E32" t="n">
-        <v>5</v>
-      </c>
-      <c r="F32" t="n">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Clay, Brick Hollowcore insulated</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="E33" t="n">
-        <v>5</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Clay, Tile</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="E34" t="n">
-        <v>5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Concrete</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>63</v>
-      </c>
-      <c r="C35" t="n">
-        <v>6</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.6879818594104309</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4.349206349206349</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4.253968253968254</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Concrete, General</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>16</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.6446428571428572</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4.625</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4.4375</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Concrete, Pre-Cast</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>42</v>
-      </c>
-      <c r="C37" t="n">
-        <v>5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.654421768707483</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Concrete, aerated</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E38" t="n">
-        <v>5</v>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Glass</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>166</v>
-      </c>
-      <c r="C39" t="n">
-        <v>9</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.7819277108433735</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.969879518072289</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3.439759036144578</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.993975903614458</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Glass, General</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>89</v>
-      </c>
-      <c r="C40" t="n">
-        <v>7</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.7120385232744784</v>
-      </c>
-      <c r="E40" t="n">
-        <v>5</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2.955056179775281</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.98876404494382</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Glass, Toughened</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>43</v>
-      </c>
-      <c r="C41" t="n">
-        <v>5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="E41" t="n">
-        <v>5</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Glass, Glazing, Double</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>9</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.6253968253968254</v>
-      </c>
-      <c r="E42" t="n">
-        <v>5</v>
-      </c>
-      <c r="F42" t="n">
-        <v>4</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Glass, Multi layer safety, unfilled</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="E43" t="n">
-        <v>5</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Glass, Multi layer safety, filled core, fire resistant, toughened</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>6</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="E44" t="n">
-        <v>5</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Glass, Glazing triple</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>6</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.6238095238095239</v>
-      </c>
-      <c r="E45" t="n">
-        <v>5</v>
-      </c>
-      <c r="F45" t="n">
-        <v>4</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Steel</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>133</v>
-      </c>
-      <c r="C46" t="n">
-        <v>8</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.7370569280343717</v>
-      </c>
-      <c r="E46" t="n">
-        <v>4.706766917293233</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3.864661654135338</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1.714285714285714</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Steel, Bar and Rod</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>24</v>
-      </c>
-      <c r="C47" t="n">
-        <v>4</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.638095238095238</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3.541666666666667</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Steel, Sheet</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>11</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.6597402597402597</v>
-      </c>
-      <c r="E48" t="n">
-        <v>5</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
-      <c r="G48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Steel, Galvanised</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>10</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.6114285714285715</v>
-      </c>
-      <c r="E49" t="n">
-        <v>5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Steel, Structural</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>4</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5285714285714286</v>
-      </c>
-      <c r="E50" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Steel, Stainless</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>6</v>
-      </c>
-      <c r="C51" t="n">
-        <v>3</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E51" t="n">
-        <v>5</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Timber</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>226</v>
-      </c>
-      <c r="C52" t="n">
-        <v>9</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.7600505689001265</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4.915929203539823</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3.305309734513274</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.699115044247788</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Timber, Softwood</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>45</v>
-      </c>
-      <c r="C53" t="n">
-        <v>5</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4.955555555555556</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2.533333333333333</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.955555555555555</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Timber, Wood I-Beam</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>37</v>
-      </c>
-      <c r="C54" t="n">
-        <v>5</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.6833976833976834</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5</v>
-      </c>
-      <c r="F54" t="n">
-        <v>4.891891891891892</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1.081081081081081</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Timber, Hardwood</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>22</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.583116883116883</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.954545454545454</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.590909090909091</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Timber, OSB</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>16</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.6464285714285715</v>
-      </c>
-      <c r="E56" t="n">
-        <v>5</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3.9375</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.8125</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Timber, Particle Board</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>13</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5846153846153845</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4.846153846153846</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2.076923076923077</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Timber, Plywood</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>11</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.5948051948051949</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4.909090909090909</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2.363636363636364</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.909090909090909</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Timber, Laminate</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>16</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.6267857142857143</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4.625</v>
-      </c>
-      <c r="F59" t="n">
-        <v>4</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.5625</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Timber, Parquet</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>12</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.630952380952381</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Timber, Chipboard</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>8</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E61" t="n">
-        <v>5</v>
-      </c>
-      <c r="F61" t="n">
-        <v>4</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Timber, Fibreboard</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>7</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.5836734693877551</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4.857142857142857</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.571428571428571</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Timber, Laminated veneer lumber</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>5</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.582857142857143</v>
-      </c>
-      <c r="E63" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F63" t="n">
-        <v>4</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D180"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Density (kg m-3)</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Specific heat (J kg-1 K-1)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Thermal Diffusivity (M^2 S-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>aggregate</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2240</v>
-      </c>
-      <c r="C2" t="n">
-        <v>840</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.566326530612244e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>aggregate (sand, gravel or stone)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2240</v>
-      </c>
-      <c r="C3" t="n">
-        <v>920</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.308229813664597e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sand</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2240</v>
-      </c>
-      <c r="C4" t="n">
-        <v>840</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.247448979591836e-07</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>aluminium</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2700</v>
-      </c>
-      <c r="C5" t="n">
-        <v>880</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.680134680134681e-05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Asphalt A</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1700</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.941176470588235e-07</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Asphalt B</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2300</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.069053708439897e-07</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>poured</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2100</v>
-      </c>
-      <c r="C8" t="n">
-        <v>920</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.211180124223603e-07</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Bitumen, composite, flooring</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2400</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.541666666666667e-07</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Bitumen, insulation, all types</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.176470588235294e-07</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>cement</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1860</v>
-      </c>
-      <c r="C11" t="n">
-        <v>840</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4.608294930875576e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>cement blocks, cellular</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>520</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2040</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.110859728506788e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>cement fibreboard, magnesium oxysulphide binder</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>350</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.802197802197802e-07</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Cement mortar</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1650</v>
-      </c>
-      <c r="C14" t="n">
-        <v>920</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.743083003952569e-07</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>cement mortar</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1900</v>
-      </c>
-      <c r="C15" t="n">
-        <v>840</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.827067669172933e-07</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>cement mortar</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1900</v>
-      </c>
-      <c r="C16" t="n">
-        <v>840</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9.398496240601504e-07</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>cement/lime plaster</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1600</v>
-      </c>
-      <c r="C17" t="n">
-        <v>840</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5.952380952380953e-07</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>cement panels, wood fibres A</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>350</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.209372637944067e-07</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>cement panels, wood fibres B</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>350</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3040</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.12781954887218e-07</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>cement panels, wood fibres C</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>400</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.040816326530612e-07</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>cement panels, wood fibres D</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1650</v>
-      </c>
-      <c r="C21" t="n">
-        <v>840</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.525252525252525e-07</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Cement Screed</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2100</v>
-      </c>
-      <c r="C22" t="n">
-        <v>650</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.025641025641026e-06</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Ceramic tiles</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C23" t="n">
-        <v>850</v>
-      </c>
-      <c r="D23" t="n">
-        <v>7.058823529411765e-07</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Ceramic floor tiles</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1700</v>
-      </c>
-      <c r="C24" t="n">
-        <v>850</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5.536332179930796e-07</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Clay tiles</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1900</v>
-      </c>
-      <c r="C25" t="n">
-        <v>840</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5.325814536340852e-07</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Clay tiles, burnt</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C26" t="n">
-        <v>840</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7.738095238095238e-07</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Clay tile, hollow, 10.2mm. 1 cell</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1120</v>
-      </c>
-      <c r="C27" t="n">
-        <v>840</v>
-      </c>
-      <c r="D27" t="n">
-        <v>5.527210884353742e-07</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Clay tile, hollow, 20.3mm, 2 cells</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1120</v>
-      </c>
-      <c r="C28" t="n">
-        <v>840</v>
-      </c>
-      <c r="D28" t="n">
-        <v>6.622023809523809e-07</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Clay tile, hollow, 32.5mm, 3 cells</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1120</v>
-      </c>
-      <c r="C29" t="n">
-        <v>840</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7.366071428571429e-07</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Clay tile, pavior</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C30" t="n">
-        <v>840</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.117931547619048e-06</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Density (kg m -3)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Specific heat (J kg-1 K-1)</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Thermal Diffusivity (M^2 S-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Brick A</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C32" t="n">
-        <v>840</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4.464285714285714e-07</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Brick B</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>2080</v>
-      </c>
-      <c r="C33" t="n">
-        <v>921</v>
-      </c>
-      <c r="D33" t="n">
-        <v>6.838302848074836e-07</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>brickwork, outer leaf</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1700</v>
-      </c>
-      <c r="C34" t="n">
-        <v>800</v>
-      </c>
-      <c r="D34" t="n">
-        <v>6.176470588235294e-07</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>burned A</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C35" t="n">
-        <v>840</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6.868131868131868e-07</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>burned B</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C36" t="n">
-        <v>840</v>
-      </c>
-      <c r="D36" t="n">
-        <v>6.746031746031745e-07</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>burned C</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1700</v>
-      </c>
-      <c r="C37" t="n">
-        <v>840</v>
-      </c>
-      <c r="D37" t="n">
-        <v>7.002801120448179e-07</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>mud</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1730</v>
-      </c>
-      <c r="C38" t="n">
-        <v>880</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4.926431949553337e-07</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>reinforced</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C39" t="n">
-        <v>840</v>
-      </c>
-      <c r="D39" t="n">
-        <v>6.820436507936509e-07</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>block, heavyweight, 300mm</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2240</v>
-      </c>
-      <c r="C40" t="n">
-        <v>840</v>
-      </c>
-      <c r="D40" t="n">
-        <v>6.962159863945579e-07</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>block, lightweight, 150mm</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1760</v>
-      </c>
-      <c r="C41" t="n">
-        <v>840</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4.464285714285715e-07</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>block, lightweight, 300mm</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1800</v>
-      </c>
-      <c r="C42" t="n">
-        <v>840</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4.828042328042328e-07</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>block, medium weight, 150mm</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1900</v>
-      </c>
-      <c r="C43" t="n">
-        <v>840</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4.824561403508772e-07</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>block, medium weight, 300mm</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1940</v>
-      </c>
-      <c r="C44" t="n">
-        <v>840</v>
-      </c>
-      <c r="D44" t="n">
-        <v>5.09327442317133e-07</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>block, hollow, heavyweight, 300mm</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1220</v>
-      </c>
-      <c r="C45" t="n">
-        <v>840</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1.317330210772834e-06</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>block, hollow, lightweight, 150mm</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>880</v>
-      </c>
-      <c r="C46" t="n">
-        <v>840</v>
-      </c>
-      <c r="D46" t="n">
-        <v>6.493506493506493e-07</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>block, hollow, lightweight, 300mm</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>780</v>
-      </c>
-      <c r="C47" t="n">
-        <v>840</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.15995115995116e-06</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>block, hollow, medium weight, 150mm</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1040</v>
-      </c>
-      <c r="C48" t="n">
-        <v>840</v>
-      </c>
-      <c r="D48" t="n">
-        <v>7.097069597069597e-07</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>block, hollow, medium weight, 300mm</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>930</v>
-      </c>
-      <c r="C49" t="n">
-        <v>840</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1.100870455709165e-06</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>block, partially filled, heavyweight, 300mm</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1570</v>
-      </c>
-      <c r="C50" t="n">
-        <v>840</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1.023657870791629e-06</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>block, partially filled, lightweight, 150mm</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1170</v>
-      </c>
-      <c r="C51" t="n">
-        <v>840</v>
-      </c>
-      <c r="D51" t="n">
-        <v>5.596255596255596e-07</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>block, partially filled, lightweight, 300mm</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1120</v>
-      </c>
-      <c r="C52" t="n">
-        <v>840</v>
-      </c>
-      <c r="D52" t="n">
-        <v>7.865646258503401e-07</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>block, partially filled, medium weight, 150 mm</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1330</v>
-      </c>
-      <c r="C53" t="n">
-        <v>840</v>
-      </c>
-      <c r="D53" t="n">
-        <v>5.728607232366631e-07</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>block, partially filled, mediumweight,300 mm</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1260</v>
-      </c>
-      <c r="C54" t="n">
-        <v>840</v>
-      </c>
-      <c r="D54" t="n">
-        <v>8.030990173847317e-07</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>block, perlite-filled, lightweight, 150mm</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>910</v>
-      </c>
-      <c r="C55" t="n">
-        <v>840</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2.223966509680795e-07</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>block, perlite-filled, mediumweight,150mm</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1070</v>
-      </c>
-      <c r="C56" t="n">
-        <v>840</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2.225189141076992e-07</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>block, with perlite, lightweight, 150mm</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C57" t="n">
-        <v>840</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3.329297820823245e-07</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>block, with perlite, medium weight, 150 mm</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1340</v>
-      </c>
-      <c r="C58" t="n">
-        <v>840</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3.464818763326226e-07</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>tiles</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2100</v>
-      </c>
-      <c r="C59" t="n">
-        <v>840</v>
-      </c>
-      <c r="D59" t="n">
-        <v>6.235827664399093e-07</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Concrete, cast:</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> aerated</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>500</v>
-      </c>
-      <c r="C61" t="n">
-        <v>840</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3.80952380952381e-07</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>aerated, cellular</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>400</v>
-      </c>
-      <c r="C62" t="n">
-        <v>840</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4.464285714285714e-07</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>aerated, cement/lime based</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>580</v>
-      </c>
-      <c r="C63" t="n">
-        <v>840</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4.310344827586207e-07</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> cellular</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>480</v>
-      </c>
-      <c r="C64" t="n">
-        <v>840</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3.968253968253968e-07</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>cellular bonded</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>520</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2040</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2.828054298642534e-07</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>dense</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2200</v>
-      </c>
-      <c r="C66" t="n">
-        <v>840</v>
-      </c>
-      <c r="D66" t="n">
-        <v>9.199134199134198e-07</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>compacted,</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>2400</v>
-      </c>
-      <c r="C67" t="n">
-        <v>840</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1.091269841269841e-06</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>dense, reinforced</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2300</v>
-      </c>
-      <c r="C68" t="n">
-        <v>840</v>
-      </c>
-      <c r="D68" t="n">
-        <v>9.834368530020703e-07</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>compacted</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C69" t="n">
-        <v>840</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1.095238095238095e-06</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>expanded clay filling</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>780</v>
-      </c>
-      <c r="C70" t="n">
-        <v>840</v>
-      </c>
-      <c r="D70" t="n">
-        <v>3.968253968253968e-07</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>foamed</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>320</v>
-      </c>
-      <c r="C71" t="n">
-        <v>920</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2.377717391304348e-07</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>foam slag</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1040</v>
-      </c>
-      <c r="C72" t="n">
-        <v>960</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2.50400641025641e-07</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>glass reinforced</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>1950</v>
-      </c>
-      <c r="C73" t="n">
-        <v>840</v>
-      </c>
-      <c r="D73" t="n">
-        <v>5.494505494505495e-07</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>heavyweight</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C74" t="n">
-        <v>840</v>
-      </c>
-      <c r="D74" t="n">
-        <v>7.738095238095238e-07</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>lightweight</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>620</v>
-      </c>
-      <c r="C75" t="n">
-        <v>840</v>
-      </c>
-      <c r="D75" t="n">
-        <v>3.840245775729647e-07</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>medium weight</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>1050</v>
-      </c>
-      <c r="C76" t="n">
-        <v>840</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3.6281179138322e-07</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>medium weight, with lime</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>1650</v>
-      </c>
-      <c r="C77" t="n">
-        <v>880</v>
-      </c>
-      <c r="D77" t="n">
-        <v>5.027548209366391e-07</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>no fines</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>1800</v>
-      </c>
-      <c r="C78" t="n">
-        <v>840</v>
-      </c>
-      <c r="D78" t="n">
-        <v>6.349206349206349e-07</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>residuals of iron works</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C79" t="n">
-        <v>840</v>
-      </c>
-      <c r="D79" t="n">
-        <v>4.166666666666667e-07</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>roofing slab, aerated</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>500</v>
-      </c>
-      <c r="C80" t="n">
-        <v>840</v>
-      </c>
-      <c r="D80" t="n">
-        <v>3.80952380952381e-07</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>vermiculite aggregate</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>450</v>
-      </c>
-      <c r="C81" t="n">
-        <v>840</v>
-      </c>
-      <c r="D81" t="n">
-        <v>4.497354497354498e-07</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>very lightweight</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>370</v>
-      </c>
-      <c r="C82" t="n">
-        <v>840</v>
-      </c>
-      <c r="D82" t="n">
-        <v>4.504504504504505e-07</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Masonry:</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>block, lightweight</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>470</v>
-      </c>
-      <c r="C84" t="n">
-        <v>840</v>
-      </c>
-      <c r="D84" t="n">
-        <v>4.812563323201621e-07</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>block, medium weight</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>1350</v>
-      </c>
-      <c r="C85" t="n">
-        <v>840</v>
-      </c>
-      <c r="D85" t="n">
-        <v>5.291005291005291e-07</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>heavyweight</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>1850</v>
-      </c>
-      <c r="C86" t="n">
-        <v>840</v>
-      </c>
-      <c r="D86" t="n">
-        <v>5.791505791505791e-07</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>lightweight</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>750</v>
-      </c>
-      <c r="C87" t="n">
-        <v>840</v>
-      </c>
-      <c r="D87" t="n">
-        <v>3.492063492063492e-07</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>medium weight</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>1050</v>
-      </c>
-      <c r="C88" t="n">
-        <v>840</v>
-      </c>
-      <c r="D88" t="n">
-        <v>3.6281179138322e-07</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>cellular sheet</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>140</v>
-      </c>
-      <c r="C89" t="n">
-        <v>840</v>
-      </c>
-      <c r="D89" t="n">
-        <v>4.081632653061225e-07</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>foam</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>130</v>
-      </c>
-      <c r="C90" t="n">
-        <v>750</v>
-      </c>
-      <c r="D90" t="n">
-        <v>5.743589743589744e-07</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>solid (soda-lime)</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C91" t="n">
-        <v>840</v>
-      </c>
-      <c r="D91" t="n">
-        <v>5e-07</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Glass fibre/wool:</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>fibre quilt</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>12</v>
-      </c>
-      <c r="C93" t="n">
-        <v>840</v>
-      </c>
-      <c r="D93" t="n">
-        <v>3.968253968253968e-06</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>fibre slab</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>25</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1.4e-06</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>fibre, strawboard-like</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>300</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2100</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.349206349206349e-07</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>wool</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>10</v>
-      </c>
-      <c r="C96" t="n">
-        <v>840</v>
-      </c>
-      <c r="D96" t="n">
-        <v>4.761904761904762e-06</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>wool, resin bonded</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>24</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1.5e-06</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>phenol</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>30</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D98" t="n">
-        <v>9.523809523809523e-07</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>phenol, rigid</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>110</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D99" t="n">
-        <v>2.164502164502165e-07</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>polyisocyanate</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>45</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D100" t="n">
-        <v>4.535147392290249e-07</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>polyurethane</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>30</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D101" t="n">
-        <v>6.34920634920635e-07</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>polyurethane, freon-filled</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>45</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D102" t="n">
-        <v>4.535147392290249e-07</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>polyvinylchloride</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>37</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D103" t="n">
-        <v>6.435006435006435e-07</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>urea formaldehyde</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>10</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2.857142857142857e-06</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>urea formaldehyde resin</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>14</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2.623906705539358e-06</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Mineral fibre/wool:</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>fibre blanket, bonded</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>12</v>
-      </c>
-      <c r="C107" t="n">
-        <v>710</v>
-      </c>
-      <c r="D107" t="n">
-        <v>4.929577464788732e-06</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>fibre blanket, metal</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>140</v>
-      </c>
-      <c r="C108" t="n">
-        <v>710</v>
-      </c>
-      <c r="D108" t="n">
-        <v>3.822937625754527e-07</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>reinforced</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>140</v>
-      </c>
-      <c r="C109" t="n">
-        <v>710</v>
-      </c>
-      <c r="D109" t="n">
-        <v>4.627766599597585e-07</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>fibre board, preformed</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>240</v>
-      </c>
-      <c r="C110" t="n">
-        <v>760</v>
-      </c>
-      <c r="D110" t="n">
-        <v>2.302631578947369e-07</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>fibre board, wet felted</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>290</v>
-      </c>
-      <c r="C111" t="n">
-        <v>800</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2.198275862068965e-07</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>fibre board, wet moulded</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>370</v>
-      </c>
-      <c r="C112" t="n">
-        <v>590</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2.794319743472286e-07</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>fibre board, resin bonded</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>240</v>
-      </c>
-      <c r="C113" t="n">
-        <v>710</v>
-      </c>
-      <c r="D113" t="n">
-        <v>2.464788732394366e-07</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>fibre, textile, organic bonded</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>10</v>
-      </c>
-      <c r="C114" t="n">
-        <v>710</v>
-      </c>
-      <c r="D114" t="n">
-        <v>6.056338028169014e-06</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>fibre slag, pipe insulation</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>100</v>
-      </c>
-      <c r="C115" t="n">
-        <v>710</v>
-      </c>
-      <c r="D115" t="n">
-        <v>5.070422535211267e-07</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>wool</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>140</v>
-      </c>
-      <c r="C116" t="n">
-        <v>840</v>
-      </c>
-      <c r="D116" t="n">
-        <v>3.231292517006803e-07</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>wool, fibrous</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>96</v>
-      </c>
-      <c r="C117" t="n">
-        <v>840</v>
-      </c>
-      <c r="D117" t="n">
-        <v>5.33234126984127e-07</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>wool, resin bonded</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>99</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D118" t="n">
-        <v>3.636363636363636e-07</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Rock wool:</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>unbonded</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>92</v>
-      </c>
-      <c r="C120" t="n">
-        <v>840</v>
-      </c>
-      <c r="D120" t="n">
-        <v>6.081780538302278e-07</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Cork:</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>110</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2.02020202020202e-07</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>board</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>160</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1.322751322751323e-07</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>expanded</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>150</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1760</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1.666666666666667e-07</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>expanded, impregnated</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>150</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1760</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.628787878787879e-07</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>slab</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>160</v>
-      </c>
-      <c r="C125" t="n">
-        <v>960</v>
-      </c>
-      <c r="D125" t="n">
-        <v>2.799479166666666e-07</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>tiles</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>530</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D126" t="n">
-        <v>8.385744234800839e-08</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Cement plaster</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>1760</v>
-      </c>
-      <c r="C127" t="n">
-        <v>840</v>
-      </c>
-      <c r="D127" t="n">
-        <v>4.87012987012987e-07</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Cement plaster, sand aggregate</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>1860</v>
-      </c>
-      <c r="C128" t="n">
-        <v>840</v>
-      </c>
-      <c r="D128" t="n">
-        <v>4.608294930875576e-07</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Cement screed</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>2100</v>
-      </c>
-      <c r="C129" t="n">
-        <v>650</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1.025641025641026e-06</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Gypsum</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>1200</v>
-      </c>
-      <c r="C130" t="n">
-        <v>840</v>
-      </c>
-      <c r="D130" t="n">
-        <v>4.166666666666667e-07</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Gypsum plaster</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>1120</v>
-      </c>
-      <c r="C131" t="n">
-        <v>960</v>
-      </c>
-      <c r="D131" t="n">
-        <v>4.743303571428571e-07</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Gypsum plaster, perlite aggregate</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>720</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1340</v>
-      </c>
-      <c r="D132" t="n">
-        <v>2.280265339966832e-07</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Gypsum plaster, sand aggregate</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>1680</v>
-      </c>
-      <c r="C133" t="n">
-        <v>840</v>
-      </c>
-      <c r="D133" t="n">
-        <v>5.739795918367347e-07</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Gypsum Plasterboard</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>800</v>
-      </c>
-      <c r="C134" t="n">
-        <v>840</v>
-      </c>
-      <c r="D134" t="n">
-        <v>2.380952380952381e-07</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Gypsum plastering</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C135" t="n">
-        <v>840</v>
-      </c>
-      <c r="D135" t="n">
-        <v>7.326007326007326e-07</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Limestone mortar</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>1600</v>
-      </c>
-      <c r="C136" t="n">
-        <v>840</v>
-      </c>
-      <c r="D136" t="n">
-        <v>5.208333333333333e-07</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Plaster</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>800</v>
-      </c>
-      <c r="C137" t="n">
-        <v>840</v>
-      </c>
-      <c r="D137" t="n">
-        <v>3.273809523809524e-07</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Plaster ceiling tiles</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>1120</v>
-      </c>
-      <c r="C138" t="n">
-        <v>840</v>
-      </c>
-      <c r="D138" t="n">
-        <v>4.039115646258503e-07</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Plaster, lightweight aggregate</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>720</v>
-      </c>
-      <c r="C139" t="n">
-        <v>840</v>
-      </c>
-      <c r="D139" t="n">
-        <v>3.802910052910053e-07</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Plaster, sand aggregate</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>1680</v>
-      </c>
-      <c r="C140" t="n">
-        <v>840</v>
-      </c>
-      <c r="D140" t="n">
-        <v>5.810657596371882e-07</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Plasterboard</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>950</v>
-      </c>
-      <c r="C141" t="n">
-        <v>840</v>
-      </c>
-      <c r="D141" t="n">
-        <v>2.005012531328321e-07</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Render, synthetic resin, exterior insulation</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>1100</v>
-      </c>
-      <c r="C142" t="n">
-        <v>900</v>
-      </c>
-      <c r="D142" t="n">
-        <v>7.07070707070707e-07</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Rendering</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>1430</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D143" t="n">
-        <v>7.902097902097902e-07</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Rubber:</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D144" t="n">
-        <v>7.555555555555556e-08</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>expanded board, rigid</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>70</v>
-      </c>
-      <c r="C145" t="n">
-        <v>70</v>
-      </c>
-      <c r="D145" t="n">
-        <v>6.53061224489796e-06</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>1200</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1.041666666666667e-07</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>tiles</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>1600</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1600</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1.171875e-07</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>stainless steel, 5% Ni</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>7850</v>
-      </c>
-      <c r="C148" t="n">
-        <v>480</v>
-      </c>
-      <c r="D148" t="n">
-        <v>7.696390658174098e-06</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>stainless steel, 20% Ni</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>8000</v>
-      </c>
-      <c r="C149" t="n">
-        <v>480</v>
-      </c>
-      <c r="D149" t="n">
-        <v>4.166666666666667e-06</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>steel</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>7800</v>
-      </c>
-      <c r="C150" t="n">
-        <v>480</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1.201923076923077e-05</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>fir, pine</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>510</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1380</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1.705029838022165e-07</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>hardwood (unspecified)</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>90</v>
-      </c>
-      <c r="C152" t="n">
-        <v>2810</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1.977066034005536e-07</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>maple, oak and similar hardwoods</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>720</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1.763668430335097e-07</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>oak, radial</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
         <v>700</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2390</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1.135684399282726e-07</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>oak, beech, ash, walnut</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>650</v>
-      </c>
-      <c r="C155" t="n">
-        <v>3050</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1.16015132408575e-07</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>meranti</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>650</v>
-      </c>
-      <c r="C156" t="n">
-        <v>2120</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1.23367198838897e-07</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>pine, pitch pine</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>650</v>
-      </c>
-      <c r="C157" t="n">
-        <v>2120</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1.23367198838897e-07</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>red fir, Oregon fir</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>520</v>
-      </c>
-      <c r="C158" t="n">
-        <v>2280</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1.180836707152497e-07</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>resinous woods (spruce, sylvester pine)</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>530</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1880</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1.204335608189482e-07</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>softwood</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>510</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1380</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.705029838022165e-07</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> timber</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>480</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1680</v>
-      </c>
-      <c r="D161" t="n">
-        <v>8.928571428571428e-08</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> timber flooring</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>650</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.794871794871795e-07</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>willow, North Canadian gaboon</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>420</v>
-      </c>
-      <c r="C163" t="n">
-        <v>2400</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.19047619047619e-07</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>willow, birch, soft beech</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>520</v>
-      </c>
-      <c r="C164" t="n">
-        <v>2280</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1.180836707152497e-07</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Wood derivatives:</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>520</v>
-      </c>
-      <c r="C165" t="n">
-        <v>3440</v>
-      </c>
-      <c r="D165" t="n">
-        <v>9.503577817531306e-08</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>cellulosic insulation, loose fill</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>43</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1380</v>
-      </c>
-      <c r="D166" t="n">
-        <v>7.077856420626896e-07</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>chipboard</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>430</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1.236618678479144e-07</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>chipboard, bonded with PF</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>650</v>
-      </c>
-      <c r="C168" t="n">
-        <v>2340</v>
-      </c>
-      <c r="D168" t="n">
-        <v>7.889546351084813e-08</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>chipboard, bonded with UF</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>630</v>
-      </c>
-      <c r="C169" t="n">
-        <v>2260</v>
-      </c>
-      <c r="D169" t="n">
-        <v>8.428150021070375e-08</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>chipboard, bonded with</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>630</v>
-      </c>
-      <c r="C170" t="n">
-        <v>2260</v>
-      </c>
-      <c r="D170" t="n">
-        <v>8.428150021070375e-08</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>melamine</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>630</v>
-      </c>
-      <c r="C171" t="n">
-        <v>5020</v>
-      </c>
-      <c r="D171" t="n">
-        <v>7.904888382976033e-08</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>chipboard, perforated</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>350</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1.496598639455782e-07</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>flooring blocks</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>650</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1.794871794871795e-07</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>hardboard</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>600</v>
-      </c>
-      <c r="C174" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D174" t="n">
-        <v>6.666666666666667e-08</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>multiplex, beech</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>650</v>
-      </c>
-      <c r="C175" t="n">
-        <v>2300</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1.003344481605351e-07</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>multiplex, North Canadian gaboon</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>450</v>
-      </c>
-      <c r="C176" t="n">
-        <v>2300</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1.159420289855072e-07</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>multiplex, red fir</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>550</v>
-      </c>
-      <c r="C177" t="n">
-        <v>2300</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.027667984189723e-07</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>particle board</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>750</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.005128205128205e-07</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>plywood</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>540</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1210</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1.836547291092746e-07</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Vinyl floor covering</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>1200</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1470</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.077097505668934e-07</v>
       </c>
     </row>
   </sheetData>

--- a/FinalDataSet.xlsx
+++ b/FinalDataSet.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Material Cost" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Material DQI" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Material Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Material_Data1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Material_Data2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J366"/>
+  <dimension ref="A1:D353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,36 +457,6 @@
           <t>DQI Version</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cost per Unit (USD)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Recyclability Index</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Lifespan (Years)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Embodied Carbon (kgCO?)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Energy Consumption (kWh)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6626,292 +6598,6 @@
         <is>
           <t>V2.0</t>
         </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>Aggregate</t>
-        </is>
-      </c>
-      <c r="F354" t="n">
-        <v>50</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H354" t="n">
-        <v>30</v>
-      </c>
-      <c r="I354" t="n">
-        <v>200</v>
-      </c>
-      <c r="J354" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>Aluminum</t>
-        </is>
-      </c>
-      <c r="F355" t="n">
-        <v>350</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H355" t="n">
-        <v>50</v>
-      </c>
-      <c r="I355" t="n">
-        <v>500</v>
-      </c>
-      <c r="J355" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>Asphalt</t>
-        </is>
-      </c>
-      <c r="F356" t="n">
-        <v>100</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H356" t="n">
-        <v>25</v>
-      </c>
-      <c r="I356" t="n">
-        <v>250</v>
-      </c>
-      <c r="J356" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>Cement &amp; Mortar</t>
-        </is>
-      </c>
-      <c r="F357" t="n">
-        <v>120</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H357" t="n">
-        <v>60</v>
-      </c>
-      <c r="I357" t="n">
-        <v>350</v>
-      </c>
-      <c r="J357" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>Bitumen</t>
-        </is>
-      </c>
-      <c r="F358" t="n">
-        <v>150</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H358" t="n">
-        <v>20</v>
-      </c>
-      <c r="I358" t="n">
-        <v>150</v>
-      </c>
-      <c r="J358" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>Clay Bricks</t>
-        </is>
-      </c>
-      <c r="F359" t="n">
-        <v>60</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H359" t="n">
-        <v>100</v>
-      </c>
-      <c r="I359" t="n">
-        <v>300</v>
-      </c>
-      <c r="J359" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>Concrete</t>
-        </is>
-      </c>
-      <c r="F360" t="n">
-        <v>80</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H360" t="n">
-        <v>50</v>
-      </c>
-      <c r="I360" t="n">
-        <v>150</v>
-      </c>
-      <c r="J360" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>Glass</t>
-        </is>
-      </c>
-      <c r="F361" t="n">
-        <v>200</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="H361" t="n">
-        <v>70</v>
-      </c>
-      <c r="I361" t="n">
-        <v>100</v>
-      </c>
-      <c r="J361" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>Insulation</t>
-        </is>
-      </c>
-      <c r="F362" t="n">
-        <v>25</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H362" t="n">
-        <v>40</v>
-      </c>
-      <c r="I362" t="n">
-        <v>50</v>
-      </c>
-      <c r="J362" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>Paint</t>
-        </is>
-      </c>
-      <c r="F363" t="n">
-        <v>40</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H363" t="n">
-        <v>15</v>
-      </c>
-      <c r="I363" t="n">
-        <v>120</v>
-      </c>
-      <c r="J363" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>Steel</t>
-        </is>
-      </c>
-      <c r="F364" t="n">
-        <v>300</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H364" t="n">
-        <v>70</v>
-      </c>
-      <c r="I364" t="n">
-        <v>400</v>
-      </c>
-      <c r="J364" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>Timber</t>
-        </is>
-      </c>
-      <c r="F365" t="n">
-        <v>70</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H365" t="n">
-        <v>80</v>
-      </c>
-      <c r="I365" t="n">
-        <v>180</v>
-      </c>
-      <c r="J365" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>Vinyl</t>
-        </is>
-      </c>
-      <c r="F366" t="n">
-        <v>150</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H366" t="n">
-        <v>50</v>
-      </c>
-      <c r="I366" t="n">
-        <v>250</v>
-      </c>
-      <c r="J366" t="n">
-        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -6925,7 +6611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6934,321 +6620,6098 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cost per Unit (USD)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Recyclability Index</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Lifespan (Years)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Embodied Carbon (kgCO?)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Energy Consumption (kWh)</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Main Material</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Sample Size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Max Embodied Carbon (kg CO2e/kg)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Standard Deviation Embodied Carbon (kg CO2e/kg)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Variance Based on a Sample (Excel Var Function) Embodied Carbon (kg CO2e/kg)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aggregate</t>
+          <t>AggregateSand - All Data Collected</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7</v>
+        <v>0.338274</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>0.05152782164762078</v>
       </c>
       <c r="E2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F2" t="n">
-        <v>500</v>
+        <v>0.002655116403749017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aluminum</t>
+          <t>AggregateSand, Land won gravel and sand</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350</v>
+        <v>134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8</v>
+        <v>0.0342735</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>0.005016090761526222</v>
       </c>
       <c r="E3" t="n">
-        <v>500</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1500</v>
+        <v>2.516116652786872e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Asphalt</t>
+          <t>AggregateSand, Recycled aggregate, no heat treat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.01548</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>0.004612556021212808</v>
       </c>
       <c r="E4" t="n">
-        <v>250</v>
-      </c>
-      <c r="F4" t="n">
-        <v>800</v>
+        <v>2.127567304882653e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cement &amp; Mortar</t>
+          <t>AggregateSand, Recycled aggregate, heat treat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2</v>
+        <v>0.2608</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>0.1027909366005691</v>
       </c>
       <c r="E5" t="n">
-        <v>350</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1000</v>
+        <v>0.01056597664722222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bitumen</t>
+          <t>AggregateSand, Secondary manufactured</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4</v>
+        <v>0.08542399999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>0.01699173609434892</v>
       </c>
       <c r="E6" t="n">
-        <v>150</v>
-      </c>
-      <c r="F6" t="n">
-        <v>600</v>
+        <v>0.0002887190955000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clay Bricks</t>
+          <t>AggregateSand, Expanded clay agg and sand</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9</v>
+        <v>0.338274</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>0.003182500000001508</v>
       </c>
       <c r="E7" t="n">
-        <v>300</v>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
+        <v>1.01283062500096e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Concrete</t>
+          <t>AggregateSand, Marine sand and aggregate</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3</v>
+        <v>0.009037500000000002</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>150</v>
-      </c>
-      <c r="F8" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Glass</t>
+          <t>AggregateSand, Expanded foamed glass</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.85</v>
+        <v>0.273532</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Insulation</t>
+          <t>Aluminium - All Data Collected</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8</v>
+        <v>22.07761592942833</v>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>6.078728413517814</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
+        <v>36.95093912530879</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Paint</t>
+          <t>Aluminium profile</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6</v>
+        <v>21.6</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>5.361695539108746</v>
       </c>
       <c r="E11" t="n">
-        <v>120</v>
-      </c>
-      <c r="F11" t="n">
-        <v>200</v>
+        <v>28.74777905409863</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Aluminium, Cast</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.75</v>
+        <v>10.9481</v>
       </c>
       <c r="D12" t="n">
-        <v>70</v>
+        <v>3.817915843179363</v>
       </c>
       <c r="E12" t="n">
-        <v>400</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1000</v>
+        <v>14.57648138559999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Timber</t>
+          <t>Aluminium, sheet</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7</v>
+        <v>10.4617</v>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>3.318110909378824</v>
       </c>
       <c r="E13" t="n">
-        <v>180</v>
-      </c>
-      <c r="F13" t="n">
-        <v>350</v>
+        <v>11.00986000693877</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Vinyl</t>
+          <t>Aluminium, primary ingot</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>22.07761592942833</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.237286792258527</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27.42917294436562</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Aluminium, secondary ingot</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3780489179656517</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.142920984375</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Asphalt - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0972808</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02439833537724245</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0005952787691804007</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Asphalt, for roads</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07893550000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0204526296936224</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0004183100613844448</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mastic asphalt</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0972808</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Bitumen - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.531352</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3995887021561208</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.159671130890813</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bitumen, membrane</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.531352</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4040925921624352</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1632908230405562</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Bitumen, emulsion</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.356326</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.05526186333167646</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.003053873538888887</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bitumen, Straight-run</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.246299</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02771949999999999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0007683706802499995</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Bitumen, PMB</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.379756</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02673300000000026</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.000714653289000014</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cement - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>65</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4623132119057792</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2137335059026379</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cement, Mortar</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>40</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3079037239742105</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.09480470323718677</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cement, General</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8755270000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1610556925476405</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.02593893610200009</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cement, Admixtures</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7032970962228945</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4946268055555553</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cement, Screed</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01710042714749875</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0002924246086269122</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cement, Grout</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2192031021678298</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.04805000000000002</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cement, Fibreboard</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5379230769230769</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ceramic - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>151</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.272</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5668022514438029</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.321264792241764</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ceramic, Porcelain Tile</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>51</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.87804878</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2805490070849745</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.07870774537636507</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ceramic, Sanitary</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.81122449</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.6341099263860023</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4020953987412612</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ceramic, Tile</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>81</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.272</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.4340166331052777</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1883704378120412</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Clay - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>16</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.04403154559105074</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.00193877700713678</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Clay, Brick Hollowcore</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.05102490176044031</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.002603540599662585</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Clay, Brick</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.2936338888888889</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.03131167949395065</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0009804212727318894</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Clay, Brick Hollowcore insulated</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3078260869565217</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Clay, Tile</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Concrete - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>63</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5582345454545454</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.112455107257899</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01264615114838556</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Concrete, General</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1651804670912951</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.02538196059101034</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.000644243923443602</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Concrete, Pre-Cast</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>42</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3434131736526946</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.07476225296799839</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.005589394468850983</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Concrete, aerated</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5582345454545454</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.07504068446729979</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.005631104325320848</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Glass - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>166</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5.061706313718477</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4533450905807984</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2055217711537123</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Glass, General</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>89</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.026666666666666</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.2053814041742283</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.04218152118057772</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Glass, Toughened</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>43</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2316500033420786</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.05366172404838501</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Glass, Glazing, Double</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1396064661321748</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.01948996538591407</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Glass, Multi layer safety, unfilled</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.651898734177215</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.07785200228883386</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.006060934260380593</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Glass, Multi layer safety, filled core, fire resistant, toughened</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.202941176470588</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0826483810588223</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.006830754891644296</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Glass, Glazing triple</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.846666666666667</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.07686194517407664</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.005907758615942764</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Insulation - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>965</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.2724375</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9922478883119008</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9845558718594264</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Insulation, Glass Wool</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>362</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.824175824</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5429775469325502</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.2948246164728897</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Insulation, Mineral Wool</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>462</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.804054054</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5521044586824877</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.3048193332970827</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Insulation, Polyisocyanurate (PIR)</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>37</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.985507246</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.4339474385983125</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1883103794660362</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Insulation, Polystyrene</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>94</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.893617021</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.826759866130282</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.6835318762437617</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Insulation, Polyurethane Board</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6.2724375</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.6817220838824829</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.464744999653075</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Paint - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>584</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.7909644082548579</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6256246951259575</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Paint, Waterborne</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>584</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.7909644082548579</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.6256246951259575</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Plaster - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>568</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.518663774</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.08872950915135912</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.007872925794241122</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Plaster, Glass Fibre Reinforced Plasterboard</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>85</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.518663774</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.08736054821186931</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.007631865383878341</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Plaster, Gypsum</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>107</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.08378447340835141</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.007019837984314744</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Plaster, Plasterboard</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>376</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.449462154</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.07125896257981947</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.005077839747952111</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Rubber - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6.35686</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.268522509747558</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.609149357736244</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Rubber, Synthetic</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>61</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6.35686</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.268522509747558</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.609149357736244</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Steel - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>133</v>
+      </c>
+      <c r="C65" t="n">
+        <v>16.15452215305749</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.248033192874662</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.05365323626625</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Steel, Bar and Rod</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>24</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.4981241978795561</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.2481277165131511</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Steel, Sheet</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>11</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.6109600442873495</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.3732721757156001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Steel, Galvanised</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>10</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.55501</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.5536619741954142</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.3065415816699635</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Steel, Structural</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>4</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.8858541076272098</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.7847375000000003</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Steel, Stainless</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.950983892362714</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.9043703635333379</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Timber - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>226</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.239575238370925</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.015697248324186</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Timber, Softwood</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>45</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.406</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.2156624453088025</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.04651029031657221</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Timber, Wood I-Beam</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>37</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.00558085217219</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.02749807271805495</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0007561440032074382</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Timber, Hardwood</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>22</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-1.176326530612245</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.09889401537950597</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.009780026277881965</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Timber, OSB</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>16</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.7183800000000001</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.1722212659512938</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.02966016444586628</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Timber, Particle Board</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>13</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.5514705882352943</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.1744386760253119</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.03042885169346371</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Timber, Plywood</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>11</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.5771428571428572</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.3230227515156405</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.1043436979967352</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Timber, Laminate</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>16</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8.197803809372866</v>
+      </c>
+      <c r="E78" t="n">
+        <v>67.20398729696828</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Timber, Parquet</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>12</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.6370349099099099</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.1822018927233963</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.03319752971198802</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Timber, Chipboard</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.091861548421734</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0630126807579241</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.003970597936300058</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Timber, Fibreboard</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.5119619901999909</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.2406004815846306</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.05788859173875615</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Timber, Laminated veneer lumber</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.100409836065574</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0942130199892821</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.008876093135500867</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Vinyl - All Data Collected</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>277</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.650793651</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.6607986963990335</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.4366549171626621</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Vinyl, Sheet</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>106</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.650793651</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.6830152524332623</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.466509835056473</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Vinyl, Tile</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.3758</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.5043158803458226</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.2543345071689821</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Main Material</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Sample Size</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DQI Sample Size (Max 10)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DQI Total - % (Max 100%)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DQI Temporal (Max 5)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>DQI Geographic (Max 5)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DQI Transparency (Max 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AggregateSand</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>162</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7306878306878307</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.635802469135802</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.660493827160494</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.08641975308642</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AggregateSand, Land won gravel and sand</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>134</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7036247334754796</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.582089552238806</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.597014925373134</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.104477611940299</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AggregateSand, Recycled aggregate, no heat treat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5612244897959183</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.785714285714286</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AggregateSand, Recycled aggregate, heat treat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AggregateSand, Secondary manufactured</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AggregateSand, Expanded clay agg and sand</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AggregateSand, Marine sand and aggregate</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aluminium</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>78</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7326007326007327</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.935897435897436</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.602564102564103</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.256410256410256</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Aluminium profile</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.96875</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.3125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Aluminium, Cast</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6228571428571429</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Aluminium, sheet</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.714285714285714</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Aluminium, primary ingot</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.635064935064935</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.818181818181818</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Aluminium, secondary ingot</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6321428571428571</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Asphalt</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6685714285714286</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Asphalt, for roads</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.638095238095238</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mastic asphalt</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bitumen</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Bitumen, membrane</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6057142857142856</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bitumen, emulsion</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Bitumen, Straight-run</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bitumen, PMB</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cement</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>65</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6879120879120879</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.723076923076923</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.107692307692307</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.123076923076923</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cement, Mortar</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>40</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6464285714285715</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.575</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cement, General</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6337662337662338</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.090909090909091</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cement, Admixtures</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cement, Screed</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5785714285714286</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cement, Grout</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cement, Fibreboard</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6446428571428572</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.0625</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Clay, Brick Hollowcore</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6214285714285714</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Clay, Brick</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Clay, Brick Hollowcore insulated</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Clay, Tile</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>63</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6879818594104309</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.349206349206349</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.253968253968254</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Concrete, General</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>16</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.6446428571428572</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.625</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.4375</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Concrete, Pre-Cast</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>42</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.654421768707483</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Concrete, aerated</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Glass</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>166</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7819277108433735</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.969879518072289</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.439759036144578</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.993975903614458</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Glass, General</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>89</v>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7120385232744784</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.955056179775281</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.98876404494382</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Glass, Toughened</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>43</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Glass, Glazing, Double</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6253968253968254</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Glass, Multi layer safety, unfilled</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Glass, Multi layer safety, filled core, fire resistant, toughened</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Glass, Glazing triple</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6238095238095239</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>133</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7370569280343717</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.706766917293233</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.864661654135338</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Steel, Bar and Rod</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>24</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.638095238095238</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.541666666666667</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Steel, Sheet</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>11</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6597402597402597</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Steel, Galvanised</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.6114285714285715</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Steel, Structural</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Steel, Stainless</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>226</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.7600505689001265</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.915929203539823</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.305309734513274</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.699115044247788</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Timber, Softwood</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>45</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.955555555555556</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.533333333333333</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.955555555555555</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Timber, Wood I-Beam</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>37</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6833976833976834</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4.891891891891892</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.081081081081081</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Timber, Hardwood</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>22</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.583116883116883</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.954545454545454</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.590909090909091</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Timber, OSB</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.6464285714285715</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Timber, Particle Board</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>13</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5846153846153845</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.846153846153846</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.076923076923077</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Timber, Plywood</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>11</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5948051948051949</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.909090909090909</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.363636363636364</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.909090909090909</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Timber, Laminate</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>16</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.6267857142857143</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.625</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Timber, Parquet</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>12</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.630952380952381</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Timber, Chipboard</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Timber, Fibreboard</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>7</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5836734693877551</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.571428571428571</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Timber, Laminated veneer lumber</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.582857142857143</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D180"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Density (kg m-3)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Specific heat (J kg-1 K-1)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Thermal Diffusivity (M^2 S-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C2" t="n">
+        <v>840</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.566326530612244e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aggregate (sand, gravel or stone)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C3" t="n">
+        <v>920</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.308229813664597e-07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sand</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C4" t="n">
+        <v>840</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.247448979591836e-07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aluminium</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C5" t="n">
+        <v>880</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.680134680134681e-05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Asphalt A</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.941176470588235e-07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Asphalt B</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.069053708439897e-07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>poured</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>920</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.211180124223603e-07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bitumen, composite, flooring</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.541666666666667e-07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bitumen, insulation, all types</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.176470588235294e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>cement</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C11" t="n">
+        <v>840</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.608294930875576e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cement blocks, cellular</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>520</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.110859728506788e-07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cement fibreboard, magnesium oxysulphide binder</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>350</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.802197802197802e-07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cement mortar</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C14" t="n">
+        <v>920</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.743083003952569e-07</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>cement mortar</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C15" t="n">
+        <v>840</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.827067669172933e-07</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>cement mortar</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C16" t="n">
+        <v>840</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.398496240601504e-07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>cement/lime plaster</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C17" t="n">
+        <v>840</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.952380952380953e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cement panels, wood fibres A</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>350</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.209372637944067e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>cement panels, wood fibres B</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>350</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3040</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.12781954887218e-07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>cement panels, wood fibres C</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>400</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.040816326530612e-07</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>cement panels, wood fibres D</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C21" t="n">
+        <v>840</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.525252525252525e-07</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cement Screed</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>650</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.025641025641026e-06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ceramic tiles</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>850</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.058823529411765e-07</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ceramic floor tiles</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C24" t="n">
+        <v>850</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.536332179930796e-07</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Clay tiles</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C25" t="n">
+        <v>840</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.325814536340852e-07</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Clay tiles, burnt</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>840</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.738095238095238e-07</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Clay tile, hollow, 10.2mm. 1 cell</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C27" t="n">
+        <v>840</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.527210884353742e-07</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Clay tile, hollow, 20.3mm, 2 cells</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C28" t="n">
+        <v>840</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.622023809523809e-07</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Clay tile, hollow, 32.5mm, 3 cells</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C29" t="n">
+        <v>840</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.366071428571429e-07</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Clay tile, pavior</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C30" t="n">
+        <v>840</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.117931547619048e-06</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Density (kg m -3)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Specific heat (J kg-1 K-1)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thermal Diffusivity (M^2 S-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Brick A</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C32" t="n">
+        <v>840</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.464285714285714e-07</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Brick B</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2080</v>
+      </c>
+      <c r="C33" t="n">
+        <v>921</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.838302848074836e-07</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>brickwork, outer leaf</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C34" t="n">
+        <v>800</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.176470588235294e-07</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>burned A</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C35" t="n">
+        <v>840</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6.868131868131868e-07</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>burned B</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C36" t="n">
+        <v>840</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6.746031746031745e-07</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>burned C</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C37" t="n">
+        <v>840</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7.002801120448179e-07</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>mud</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C38" t="n">
+        <v>880</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.926431949553337e-07</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>reinforced</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C39" t="n">
+        <v>840</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.820436507936509e-07</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>block, heavyweight, 300mm</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C40" t="n">
+        <v>840</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.962159863945579e-07</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>block, lightweight, 150mm</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C41" t="n">
+        <v>840</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.464285714285715e-07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>block, lightweight, 300mm</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C42" t="n">
+        <v>840</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.828042328042328e-07</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>block, medium weight, 150mm</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C43" t="n">
+        <v>840</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.824561403508772e-07</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>block, medium weight, 300mm</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C44" t="n">
+        <v>840</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5.09327442317133e-07</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>block, hollow, heavyweight, 300mm</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C45" t="n">
+        <v>840</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.317330210772834e-06</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>block, hollow, lightweight, 150mm</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>880</v>
+      </c>
+      <c r="C46" t="n">
+        <v>840</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6.493506493506493e-07</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>block, hollow, lightweight, 300mm</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>780</v>
+      </c>
+      <c r="C47" t="n">
+        <v>840</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.15995115995116e-06</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>block, hollow, medium weight, 150mm</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C48" t="n">
+        <v>840</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7.097069597069597e-07</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>block, hollow, medium weight, 300mm</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>930</v>
+      </c>
+      <c r="C49" t="n">
+        <v>840</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.100870455709165e-06</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>block, partially filled, heavyweight, 300mm</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1570</v>
+      </c>
+      <c r="C50" t="n">
+        <v>840</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.023657870791629e-06</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>block, partially filled, lightweight, 150mm</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C51" t="n">
+        <v>840</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.596255596255596e-07</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>block, partially filled, lightweight, 300mm</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C52" t="n">
+        <v>840</v>
+      </c>
+      <c r="D52" t="n">
+        <v>7.865646258503401e-07</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>block, partially filled, medium weight, 150 mm</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C53" t="n">
+        <v>840</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.728607232366631e-07</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>block, partially filled, mediumweight,300 mm</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C54" t="n">
+        <v>840</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8.030990173847317e-07</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>block, perlite-filled, lightweight, 150mm</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>910</v>
+      </c>
+      <c r="C55" t="n">
+        <v>840</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.223966509680795e-07</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>block, perlite-filled, mediumweight,150mm</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C56" t="n">
+        <v>840</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.225189141076992e-07</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>block, with perlite, lightweight, 150mm</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C57" t="n">
+        <v>840</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.329297820823245e-07</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>block, with perlite, medium weight, 150 mm</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1340</v>
+      </c>
+      <c r="C58" t="n">
+        <v>840</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.464818763326226e-07</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>tiles</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C59" t="n">
+        <v>840</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6.235827664399093e-07</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Concrete, cast:</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> aerated</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>500</v>
+      </c>
+      <c r="C61" t="n">
+        <v>840</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.80952380952381e-07</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>aerated, cellular</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>400</v>
+      </c>
+      <c r="C62" t="n">
+        <v>840</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.464285714285714e-07</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>aerated, cement/lime based</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>580</v>
+      </c>
+      <c r="C63" t="n">
+        <v>840</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.310344827586207e-07</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> cellular</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>480</v>
+      </c>
+      <c r="C64" t="n">
+        <v>840</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.968253968253968e-07</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>cellular bonded</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>520</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.828054298642534e-07</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>dense</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C66" t="n">
+        <v>840</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9.199134199134198e-07</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>compacted,</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C67" t="n">
+        <v>840</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.091269841269841e-06</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>dense, reinforced</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C68" t="n">
+        <v>840</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9.834368530020703e-07</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>compacted</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C69" t="n">
+        <v>840</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.095238095238095e-06</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>expanded clay filling</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>780</v>
+      </c>
+      <c r="C70" t="n">
+        <v>840</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.968253968253968e-07</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>foamed</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>320</v>
+      </c>
+      <c r="C71" t="n">
+        <v>920</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.377717391304348e-07</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>foam slag</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C72" t="n">
+        <v>960</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.50400641025641e-07</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>glass reinforced</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C73" t="n">
+        <v>840</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5.494505494505495e-07</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>heavyweight</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C74" t="n">
+        <v>840</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7.738095238095238e-07</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>lightweight</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>620</v>
+      </c>
+      <c r="C75" t="n">
+        <v>840</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.840245775729647e-07</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>medium weight</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C76" t="n">
+        <v>840</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.6281179138322e-07</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>medium weight, with lime</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C77" t="n">
+        <v>880</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5.027548209366391e-07</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>no fines</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C78" t="n">
+        <v>840</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6.349206349206349e-07</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>residuals of iron works</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C79" t="n">
+        <v>840</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.166666666666667e-07</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>roofing slab, aerated</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>500</v>
+      </c>
+      <c r="C80" t="n">
+        <v>840</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.80952380952381e-07</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>vermiculite aggregate</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>450</v>
+      </c>
+      <c r="C81" t="n">
+        <v>840</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4.497354497354498e-07</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>very lightweight</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>370</v>
+      </c>
+      <c r="C82" t="n">
+        <v>840</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4.504504504504505e-07</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Masonry:</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>block, lightweight</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>470</v>
+      </c>
+      <c r="C84" t="n">
+        <v>840</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4.812563323201621e-07</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>block, medium weight</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C85" t="n">
+        <v>840</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5.291005291005291e-07</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>heavyweight</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C86" t="n">
+        <v>840</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5.791505791505791e-07</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>lightweight</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>750</v>
+      </c>
+      <c r="C87" t="n">
+        <v>840</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3.492063492063492e-07</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>medium weight</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C88" t="n">
+        <v>840</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.6281179138322e-07</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>cellular sheet</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>140</v>
+      </c>
+      <c r="C89" t="n">
+        <v>840</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4.081632653061225e-07</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>foam</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>130</v>
+      </c>
+      <c r="C90" t="n">
+        <v>750</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5.743589743589744e-07</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>solid (soda-lime)</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C91" t="n">
+        <v>840</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5e-07</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Glass fibre/wool:</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>fibre quilt</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>12</v>
+      </c>
+      <c r="C93" t="n">
+        <v>840</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.968253968253968e-06</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>fibre slab</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>25</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.4e-06</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>fibre, strawboard-like</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>300</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.349206349206349e-07</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>wool</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>10</v>
+      </c>
+      <c r="C96" t="n">
+        <v>840</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4.761904761904762e-06</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>wool, resin bonded</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>24</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.5e-06</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>phenol</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>30</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9.523809523809523e-07</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>phenol, rigid</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>110</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.164502164502165e-07</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>polyisocyanate</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>45</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4.535147392290249e-07</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>polyurethane</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>30</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6.34920634920635e-07</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>polyurethane, freon-filled</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>45</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4.535147392290249e-07</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>polyvinylchloride</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>37</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6.435006435006435e-07</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>urea formaldehyde</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>10</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.857142857142857e-06</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>urea formaldehyde resin</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>14</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.623906705539358e-06</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Mineral fibre/wool:</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>fibre blanket, bonded</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>12</v>
+      </c>
+      <c r="C107" t="n">
+        <v>710</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4.929577464788732e-06</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>fibre blanket, metal</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>140</v>
+      </c>
+      <c r="C108" t="n">
+        <v>710</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3.822937625754527e-07</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>reinforced</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>140</v>
+      </c>
+      <c r="C109" t="n">
+        <v>710</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.627766599597585e-07</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>fibre board, preformed</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>240</v>
+      </c>
+      <c r="C110" t="n">
+        <v>760</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.302631578947369e-07</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>fibre board, wet felted</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>290</v>
+      </c>
+      <c r="C111" t="n">
+        <v>800</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.198275862068965e-07</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>fibre board, wet moulded</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>370</v>
+      </c>
+      <c r="C112" t="n">
+        <v>590</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.794319743472286e-07</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>fibre board, resin bonded</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>240</v>
+      </c>
+      <c r="C113" t="n">
+        <v>710</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.464788732394366e-07</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>fibre, textile, organic bonded</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>10</v>
+      </c>
+      <c r="C114" t="n">
+        <v>710</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.056338028169014e-06</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>fibre slag, pipe insulation</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>100</v>
+      </c>
+      <c r="C115" t="n">
+        <v>710</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5.070422535211267e-07</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>wool</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>140</v>
+      </c>
+      <c r="C116" t="n">
+        <v>840</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.231292517006803e-07</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>wool, fibrous</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>96</v>
+      </c>
+      <c r="C117" t="n">
+        <v>840</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5.33234126984127e-07</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>wool, resin bonded</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>99</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3.636363636363636e-07</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Rock wool:</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>unbonded</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>92</v>
+      </c>
+      <c r="C120" t="n">
+        <v>840</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6.081780538302278e-07</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Cork:</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>110</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.02020202020202e-07</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>board</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>160</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.322751322751323e-07</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>expanded</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
         <v>150</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" t="n">
-        <v>250</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="C123" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.666666666666667e-07</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>expanded, impregnated</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>150</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.628787878787879e-07</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>slab</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>160</v>
+      </c>
+      <c r="C125" t="n">
+        <v>960</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.799479166666666e-07</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>tiles</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>530</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D126" t="n">
+        <v>8.385744234800839e-08</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Cement plaster</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C127" t="n">
+        <v>840</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.87012987012987e-07</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Cement plaster, sand aggregate</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C128" t="n">
+        <v>840</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.608294930875576e-07</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Cement screed</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C129" t="n">
+        <v>650</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.025641025641026e-06</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Gypsum</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C130" t="n">
+        <v>840</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.166666666666667e-07</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Gypsum plaster</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C131" t="n">
+        <v>960</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.743303571428571e-07</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Gypsum plaster, perlite aggregate</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>720</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1340</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.280265339966832e-07</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Gypsum plaster, sand aggregate</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C133" t="n">
+        <v>840</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5.739795918367347e-07</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Gypsum Plasterboard</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>800</v>
+      </c>
+      <c r="C134" t="n">
+        <v>840</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.380952380952381e-07</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Gypsum plastering</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C135" t="n">
+        <v>840</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7.326007326007326e-07</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Limestone mortar</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C136" t="n">
+        <v>840</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5.208333333333333e-07</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Plaster</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>800</v>
+      </c>
+      <c r="C137" t="n">
+        <v>840</v>
+      </c>
+      <c r="D137" t="n">
+        <v>3.273809523809524e-07</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Plaster ceiling tiles</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C138" t="n">
+        <v>840</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.039115646258503e-07</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Plaster, lightweight aggregate</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>720</v>
+      </c>
+      <c r="C139" t="n">
+        <v>840</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3.802910052910053e-07</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Plaster, sand aggregate</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C140" t="n">
+        <v>840</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5.810657596371882e-07</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Plasterboard</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>950</v>
+      </c>
+      <c r="C141" t="n">
+        <v>840</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.005012531328321e-07</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Render, synthetic resin, exterior insulation</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C142" t="n">
+        <v>900</v>
+      </c>
+      <c r="D142" t="n">
+        <v>7.07070707070707e-07</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Rendering</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1430</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D143" t="n">
+        <v>7.902097902097902e-07</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Rubber:</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7.555555555555556e-08</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>expanded board, rigid</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>70</v>
+      </c>
+      <c r="C145" t="n">
+        <v>70</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.53061224489796e-06</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.041666666666667e-07</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>tiles</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.171875e-07</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>stainless steel, 5% Ni</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>7850</v>
+      </c>
+      <c r="C148" t="n">
+        <v>480</v>
+      </c>
+      <c r="D148" t="n">
+        <v>7.696390658174098e-06</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>stainless steel, 20% Ni</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C149" t="n">
+        <v>480</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4.166666666666667e-06</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>steel</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>7800</v>
+      </c>
+      <c r="C150" t="n">
+        <v>480</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.201923076923077e-05</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>fir, pine</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>510</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.705029838022165e-07</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>hardwood (unspecified)</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>90</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2810</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.977066034005536e-07</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>maple, oak and similar hardwoods</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>720</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.763668430335097e-07</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>oak, radial</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
         <v>700</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.135684399282726e-07</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>oak, beech, ash, walnut</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>650</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3050</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.16015132408575e-07</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>meranti</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>650</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2120</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.23367198838897e-07</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>pine, pitch pine</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>650</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2120</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.23367198838897e-07</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>red fir, Oregon fir</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>520</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2280</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.180836707152497e-07</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>resinous woods (spruce, sylvester pine)</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>530</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.204335608189482e-07</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>softwood</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>510</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.705029838022165e-07</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> timber</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>480</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D161" t="n">
+        <v>8.928571428571428e-08</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> timber flooring</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>650</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.794871794871795e-07</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>willow, North Canadian gaboon</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>420</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2400</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.19047619047619e-07</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>willow, birch, soft beech</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>520</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2280</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.180836707152497e-07</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Wood derivatives:</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>520</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3440</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9.503577817531306e-08</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>cellulosic insulation, loose fill</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>43</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D166" t="n">
+        <v>7.077856420626896e-07</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>chipboard</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>430</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.236618678479144e-07</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>chipboard, bonded with PF</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>650</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2340</v>
+      </c>
+      <c r="D168" t="n">
+        <v>7.889546351084813e-08</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>chipboard, bonded with UF</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>630</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2260</v>
+      </c>
+      <c r="D169" t="n">
+        <v>8.428150021070375e-08</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>chipboard, bonded with</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>630</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2260</v>
+      </c>
+      <c r="D170" t="n">
+        <v>8.428150021070375e-08</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>melamine</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>630</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5020</v>
+      </c>
+      <c r="D171" t="n">
+        <v>7.904888382976033e-08</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>chipboard, perforated</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>350</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.496598639455782e-07</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>flooring blocks</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>650</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.794871794871795e-07</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>hardboard</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>600</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6.666666666666667e-08</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>multiplex, beech</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>650</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.003344481605351e-07</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>multiplex, North Canadian gaboon</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>450</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.159420289855072e-07</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>multiplex, red fir</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>550</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.027667984189723e-07</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>particle board</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>750</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.005128205128205e-07</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>plywood</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>540</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.836547291092746e-07</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Vinyl floor covering</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.077097505668934e-07</v>
       </c>
     </row>
   </sheetData>
